--- a/Engine/results.xlsx
+++ b/Engine/results.xlsx
@@ -405,1566 +405,1566 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>3873732.68222565</v>
+        <v>3959902.50961866</v>
       </c>
       <c r="B2">
-        <v>1387</v>
+        <v>1886</v>
       </c>
       <c r="C2">
-        <v>888.975632992044</v>
+        <v>1171.9643175351</v>
       </c>
       <c r="D2">
-        <v>4368.52873872822</v>
+        <v>10974.915026833</v>
       </c>
       <c r="E2">
-        <v>0.31071265551851</v>
+        <v>1.07468276597977</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>3886503.6641469</v>
+        <v>3960480.09162109</v>
       </c>
       <c r="B3">
-        <v>1470</v>
+        <v>1940</v>
       </c>
       <c r="C3">
-        <v>888.975632992044</v>
+        <v>1124.20017211752</v>
       </c>
       <c r="D3">
-        <v>4560.63976962025</v>
+        <v>10974.915026833</v>
       </c>
       <c r="E3">
-        <v>0.339938608328427</v>
+        <v>1.03140710937777</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>3888284.62351766</v>
+        <v>4010371.32570086</v>
       </c>
       <c r="B4">
-        <v>1387</v>
+        <v>396</v>
       </c>
       <c r="C4">
-        <v>888.975632992044</v>
+        <v>1228.63934093385</v>
       </c>
       <c r="D4">
-        <v>3739.15583296195</v>
+        <v>3497.86269313026</v>
       </c>
       <c r="E4">
-        <v>0.282269819644773</v>
+        <v>0.216173366231358</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3893670.65673665</v>
+        <v>4026197.58135318</v>
       </c>
       <c r="B5">
-        <v>1470</v>
+        <v>396</v>
       </c>
       <c r="C5">
-        <v>888.975632992044</v>
+        <v>1219.62589442943</v>
       </c>
       <c r="D5">
-        <v>4179.64603067337</v>
+        <v>3497.86269313026</v>
       </c>
       <c r="E5">
-        <v>0.322996020446051</v>
+        <v>0.21523971268305</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>3918156.97222105</v>
+        <v>4033024.09422271</v>
       </c>
       <c r="B6">
-        <v>1614</v>
+        <v>1886</v>
       </c>
       <c r="C6">
-        <v>888.975632992044</v>
+        <v>1171.9643175351</v>
       </c>
       <c r="D6">
-        <v>5501.51918273404</v>
+        <v>11328.874267167</v>
       </c>
       <c r="E6">
-        <v>0.430706050526284</v>
+        <v>1.1507501346763</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>3924167.74961078</v>
+        <v>4033851.68651351</v>
       </c>
       <c r="B7">
-        <v>1614</v>
+        <v>1735</v>
       </c>
       <c r="C7">
-        <v>888.975632992044</v>
+        <v>922.018656486589</v>
       </c>
       <c r="D7">
-        <v>4875.45105161064</v>
+        <v>6691.28078378206</v>
       </c>
       <c r="E7">
-        <v>0.397751409516274</v>
+        <v>0.574293820832444</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>3924695.1157844</v>
+        <v>4053717.43503537</v>
       </c>
       <c r="B8">
-        <v>1614</v>
+        <v>1818</v>
       </c>
       <c r="C8">
-        <v>888.975632992044</v>
+        <v>1076.45625434502</v>
       </c>
       <c r="D8">
-        <v>5107.65286836296</v>
+        <v>10974.915026833</v>
       </c>
       <c r="E8">
-        <v>0.409415364495701</v>
+        <v>0.966199351097807</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>3943504.15688088</v>
+        <v>4076856.00883969</v>
       </c>
       <c r="B9">
-        <v>1614</v>
+        <v>534</v>
       </c>
       <c r="C9">
-        <v>847.135000248526</v>
+        <v>1228.63934093385</v>
       </c>
       <c r="D9">
-        <v>6151.56922857493</v>
+        <v>4159.44878692765</v>
       </c>
       <c r="E9">
-        <v>0.417258682263652</v>
+        <v>0.273128756852189</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>3958457.28586088</v>
+        <v>4093824.21848509</v>
       </c>
       <c r="B10">
-        <v>926</v>
+        <v>550</v>
       </c>
       <c r="C10">
-        <v>1034.0244994399</v>
+        <v>1017.77795749442</v>
       </c>
       <c r="D10">
-        <v>5764.79000314411</v>
+        <v>3497.86269313026</v>
       </c>
       <c r="E10">
-        <v>0.338174663482024</v>
+        <v>0.191020114716917</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>3966693.61763277</v>
+        <v>4111345.76577212</v>
       </c>
       <c r="B11">
-        <v>1167</v>
+        <v>1886</v>
       </c>
       <c r="C11">
-        <v>888.975632992044</v>
+        <v>1121.89355817734</v>
       </c>
       <c r="D11">
-        <v>4875.45105161064</v>
+        <v>11685.6928560532</v>
       </c>
       <c r="E11">
-        <v>0.284141859833913</v>
+        <v>1.15357379190248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>3993124.24638834</v>
+        <v>4132933.87652879</v>
       </c>
       <c r="B12">
-        <v>1246</v>
+        <v>1640</v>
       </c>
       <c r="C12">
-        <v>888.975632992044</v>
+        <v>1124.20017211752</v>
       </c>
       <c r="D12">
-        <v>5501.51918273404</v>
+        <v>10974.915026833</v>
       </c>
       <c r="E12">
-        <v>0.319202454313459</v>
+        <v>0.99568643817889</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>4012763.97011269</v>
+        <v>4171489.34835496</v>
       </c>
       <c r="B13">
-        <v>1614</v>
+        <v>532</v>
       </c>
       <c r="C13">
-        <v>888.975632992044</v>
+        <v>1228.63934093385</v>
       </c>
       <c r="D13">
-        <v>6968.33304435626</v>
+        <v>3497.86269313026</v>
       </c>
       <c r="E13">
-        <v>0.485848734525364</v>
+        <v>0.25976021254317</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>4177263.99544321</v>
+        <v>4185260.82066281</v>
       </c>
       <c r="B14">
-        <v>1686</v>
+        <v>371</v>
       </c>
       <c r="C14">
-        <v>612.44653595808</v>
+        <v>1147.92381221112</v>
       </c>
       <c r="D14">
-        <v>3499.80509078384</v>
+        <v>1605.917419114</v>
       </c>
       <c r="E14">
-        <v>0.208540591109007</v>
+        <v>0.130536903214622</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>4235972.76347848</v>
+        <v>4189836.3644077</v>
       </c>
       <c r="B15">
-        <v>674</v>
+        <v>443</v>
       </c>
       <c r="C15">
-        <v>888.975632992044</v>
+        <v>1228.63934093385</v>
       </c>
       <c r="D15">
-        <v>975.227963824259</v>
+        <v>2949.11645268523</v>
       </c>
       <c r="E15">
-        <v>0.0812180284338907</v>
+        <v>0.220609630490139</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>4351658.05670473</v>
+        <v>4201362.86080875</v>
       </c>
       <c r="B16">
-        <v>1057</v>
+        <v>365</v>
       </c>
       <c r="C16">
-        <v>865.07410745595</v>
+        <v>1273.87514233763</v>
       </c>
       <c r="D16">
-        <v>6529.15781364474</v>
+        <v>3497.86269313026</v>
       </c>
       <c r="E16">
-        <v>0.348177130285919</v>
+        <v>0.23950328238224</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>4379792.36789286</v>
+        <v>4220572.82145804</v>
       </c>
       <c r="B17">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="C17">
-        <v>1027.56092559396</v>
+        <v>1096.08707995088</v>
       </c>
       <c r="D17">
-        <v>32917.1492642788</v>
+        <v>3497.86269313026</v>
       </c>
       <c r="E17">
-        <v>1.44376258836167</v>
+        <v>0.199421948208594</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>4380958.18870362</v>
+        <v>4224327.93157988</v>
       </c>
       <c r="B18">
-        <v>446</v>
+        <v>335</v>
       </c>
       <c r="C18">
-        <v>1027.56092559396</v>
+        <v>1210.92925449964</v>
       </c>
       <c r="D18">
-        <v>33309.9750166898</v>
+        <v>2019.84982714215</v>
       </c>
       <c r="E18">
-        <v>1.47122351168324</v>
+        <v>0.159473636586238</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>4381012.07008533</v>
+        <v>4225450.17129232</v>
       </c>
       <c r="B19">
-        <v>446</v>
+        <v>74</v>
       </c>
       <c r="C19">
-        <v>1027.56092559396</v>
+        <v>1210.92925449964</v>
       </c>
       <c r="D19">
-        <v>33794.9074520775</v>
+        <v>2019.84982714215</v>
       </c>
       <c r="E19">
-        <v>1.49196391301211</v>
+        <v>0.129296882962788</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>4381288.74062529</v>
+        <v>4246061.99163235</v>
       </c>
       <c r="B20">
-        <v>446</v>
+        <v>1587</v>
       </c>
       <c r="C20">
-        <v>1027.56092559396</v>
+        <v>756.835846359976</v>
       </c>
       <c r="D20">
-        <v>36284.9423117315</v>
+        <v>7215.38948345394</v>
       </c>
       <c r="E20">
-        <v>1.59847188234631</v>
+        <v>0.387420284254659</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>4385464.08530744</v>
+        <v>4280430.86373849</v>
       </c>
       <c r="B21">
-        <v>484</v>
+        <v>717</v>
       </c>
       <c r="C21">
-        <v>1027.56092559396</v>
+        <v>1210.92925449964</v>
       </c>
       <c r="D21">
-        <v>36707.0836961929</v>
+        <v>2019.84982714215</v>
       </c>
       <c r="E21">
-        <v>1.65214079741544</v>
+        <v>0.217729066635057</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>4386938.97372604</v>
+        <v>4304635.4080402</v>
       </c>
       <c r="B22">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C22">
-        <v>1027.56092559396</v>
+        <v>1288.81277057524</v>
       </c>
       <c r="D22">
-        <v>36954.4081086174</v>
+        <v>3889.38518466133</v>
       </c>
       <c r="E22">
-        <v>1.45889827855137</v>
+        <v>0.247962501473404</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>4387209.57905591</v>
+        <v>4326511.8133186</v>
       </c>
       <c r="B23">
-        <v>243</v>
+        <v>436</v>
       </c>
       <c r="C23">
-        <v>1027.56092559396</v>
+        <v>1295.87420629452</v>
       </c>
       <c r="D23">
-        <v>39389.8560774735</v>
+        <v>2600.62595572881</v>
       </c>
       <c r="E23">
-        <v>1.55241878931609</v>
+        <v>0.231776426207834</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>4389779.8449901</v>
+        <v>4327888.73798654</v>
       </c>
       <c r="B24">
-        <v>229</v>
+        <v>1735</v>
       </c>
       <c r="C24">
-        <v>1027.56092559396</v>
+        <v>1104.42959378647</v>
       </c>
       <c r="D24">
-        <v>40670.452919962</v>
+        <v>6374.05102123468</v>
       </c>
       <c r="E24">
-        <v>1.59025655378664</v>
+        <v>1.03269767363266</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>4399676.79563246</v>
+        <v>4335110.56957052</v>
       </c>
       <c r="B25">
-        <v>566</v>
+        <v>1769</v>
       </c>
       <c r="C25">
-        <v>1027.56092559396</v>
+        <v>1124.20017211752</v>
       </c>
       <c r="D25">
-        <v>43576.4776806259</v>
+        <v>12355.6374772958</v>
       </c>
       <c r="E25">
-        <v>2.0497270254546</v>
+        <v>1.3192756611287</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>4399943.75078633</v>
+        <v>4340271.99178301</v>
       </c>
       <c r="B26">
-        <v>566</v>
+        <v>1940</v>
       </c>
       <c r="C26">
-        <v>1027.56092559396</v>
+        <v>1495.09583719564</v>
       </c>
       <c r="D26">
-        <v>45979.074065423</v>
+        <v>13486.3261099493</v>
       </c>
       <c r="E26">
-        <v>2.16000068042386</v>
+        <v>2.73720218064555</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>4400641.23048341</v>
+        <v>4349268.62506608</v>
       </c>
       <c r="B27">
-        <v>566</v>
+        <v>1940</v>
       </c>
       <c r="C27">
-        <v>1027.56092559396</v>
+        <v>1124.20017211752</v>
       </c>
       <c r="D27">
-        <v>52256.3913391351</v>
+        <v>13053.0161489742</v>
       </c>
       <c r="E27">
-        <v>2.44819975741919</v>
+        <v>1.51117763435632</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>4400928.77378696</v>
+        <v>4355528.92772649</v>
       </c>
       <c r="B28">
-        <v>566</v>
+        <v>468</v>
       </c>
       <c r="C28">
-        <v>1027.56092559396</v>
+        <v>1210.92925449964</v>
       </c>
       <c r="D28">
-        <v>54844.2810711197</v>
+        <v>925.648361105647</v>
       </c>
       <c r="E28">
-        <v>2.56704849230248</v>
+        <v>0.122126858483656</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>4403229.72421169</v>
+        <v>4363905.88993953</v>
       </c>
       <c r="B29">
-        <v>1240</v>
+        <v>757</v>
       </c>
       <c r="C29">
-        <v>888.975632992044</v>
+        <v>1210.92925449964</v>
       </c>
       <c r="D29">
-        <v>8234.55286825102</v>
+        <v>1379.22001276908</v>
       </c>
       <c r="E29">
-        <v>0.491228230588891</v>
+        <v>0.187152242283562</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>4404676.3259049</v>
+        <v>4377553.89255572</v>
       </c>
       <c r="B30">
-        <v>296</v>
+        <v>2384</v>
       </c>
       <c r="C30">
-        <v>1085.29400332883</v>
+        <v>1124.20017211752</v>
       </c>
       <c r="D30">
-        <v>33546.7181727698</v>
+        <v>14165.8022375964</v>
       </c>
       <c r="E30">
-        <v>1.46074448073907</v>
+        <v>1.9761708135048</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>4408224.66278426</v>
+        <v>4399217.02233761</v>
       </c>
       <c r="B31">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C31">
-        <v>970.231491135308</v>
+        <v>1360.04582561146</v>
       </c>
       <c r="D31">
-        <v>33475.2371705382</v>
+        <v>3497.86269313026</v>
       </c>
       <c r="E31">
-        <v>1.3807011486941</v>
+        <v>0.313860522852846</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>4408576.44514107</v>
+        <v>4410083.44662019</v>
       </c>
       <c r="B32">
-        <v>187</v>
+        <v>2097</v>
       </c>
       <c r="C32">
-        <v>1081.61617516564</v>
+        <v>1124.20017211752</v>
       </c>
       <c r="D32">
-        <v>34331.9338422938</v>
+        <v>10974.915026833</v>
       </c>
       <c r="E32">
-        <v>1.40201152179967</v>
+        <v>1.68794670924006</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>4413687.96399972</v>
+        <v>4411696.12835909</v>
       </c>
       <c r="B33">
-        <v>434</v>
+        <v>2193</v>
       </c>
       <c r="C33">
-        <v>965.494591271807</v>
+        <v>688.31123645867</v>
       </c>
       <c r="D33">
-        <v>32526.3405233213</v>
+        <v>9433.46847021591</v>
       </c>
       <c r="E33">
-        <v>1.32700986937851</v>
+        <v>0.558888521445397</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>4420397.34866787</v>
+        <v>4430603.2804296</v>
       </c>
       <c r="B34">
-        <v>481</v>
+        <v>962</v>
       </c>
       <c r="C34">
-        <v>1080.326556318</v>
+        <v>1296.11492728062</v>
       </c>
       <c r="D34">
-        <v>32889.6911504102</v>
+        <v>3351.67449329405</v>
       </c>
       <c r="E34">
-        <v>1.58772826245062</v>
+        <v>0.45461519195984</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>4427376.45431678</v>
+        <v>4478558.1737678</v>
       </c>
       <c r="B35">
-        <v>104</v>
+        <v>2210</v>
       </c>
       <c r="C35">
-        <v>1027.56092559396</v>
+        <v>385.082774782657</v>
       </c>
       <c r="D35">
-        <v>39819.8908721668</v>
+        <v>6374.05102123468</v>
       </c>
       <c r="E35">
-        <v>1.46509596105219</v>
+        <v>0.301360603213168</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>4440043.58861547</v>
+        <v>4535739.9117326</v>
       </c>
       <c r="B36">
-        <v>415</v>
+        <v>74</v>
       </c>
       <c r="C36">
-        <v>1111.60880656847</v>
+        <v>1210.92925449964</v>
       </c>
       <c r="D36">
-        <v>36421.1586571499</v>
+        <v>3037.37818059394</v>
       </c>
       <c r="E36">
-        <v>1.75430162480851</v>
+        <v>0.184171432523144</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>4469610.63147373</v>
+        <v>4540979.23169823</v>
       </c>
       <c r="B37">
-        <v>1614</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>563.666183095426</v>
+        <v>1210.92925449964</v>
       </c>
       <c r="D37">
-        <v>2306.81843429131</v>
+        <v>2019.84982714215</v>
       </c>
       <c r="E37">
-        <v>0.142976465547096</v>
+        <v>0.134217823681799</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>4477195.02208309</v>
+        <v>4541187.59258388</v>
       </c>
       <c r="B38">
-        <v>65</v>
+        <v>481</v>
       </c>
       <c r="C38">
-        <v>1156.05961204715</v>
+        <v>1210.92925449964</v>
       </c>
       <c r="D38">
-        <v>41919.3981636978</v>
+        <v>154.178699956254</v>
       </c>
       <c r="E38">
-        <v>1.73806165446568</v>
+        <v>0.0825393669960685</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>4485484.42345615</v>
+        <v>4559779.60437881</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>335</v>
       </c>
       <c r="C39">
-        <v>1027.56092559396</v>
+        <v>1210.92925449964</v>
       </c>
       <c r="D39">
-        <v>56530.9047559356</v>
+        <v>4945.86750494369</v>
       </c>
       <c r="E39">
-        <v>1.97314292427928</v>
+        <v>0.31592420881528</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>4508177.99937116</v>
+        <v>4590369.80614146</v>
       </c>
       <c r="B40">
-        <v>554</v>
+        <v>1940</v>
       </c>
       <c r="C40">
-        <v>888.975632992044</v>
+        <v>1197.17423502514</v>
       </c>
       <c r="D40">
-        <v>3954.16044556795</v>
+        <v>10092.3225895959</v>
       </c>
       <c r="E40">
-        <v>0.19170769329687</v>
+        <v>2.25862070548221</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>4557440.20939597</v>
+        <v>4605809.08665719</v>
       </c>
       <c r="B41">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="C41">
-        <v>870.683300679872</v>
+        <v>1228.63934093385</v>
       </c>
       <c r="D41">
-        <v>32917.1492642788</v>
+        <v>7240.69728567045</v>
       </c>
       <c r="E41">
-        <v>1.21051129798866</v>
+        <v>0.464552206038055</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>4681240.83417603</v>
+        <v>4684358.04644483</v>
       </c>
       <c r="B42">
-        <v>446</v>
+        <v>1489</v>
       </c>
       <c r="C42">
-        <v>1260.68153012267</v>
+        <v>1210.92925449964</v>
       </c>
       <c r="D42">
-        <v>34858.7294889621</v>
+        <v>2019.84982714215</v>
       </c>
       <c r="E42">
-        <v>2.14984327515641</v>
+        <v>0.649670429151499</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>4723751.40825072</v>
+        <v>4743952.71220903</v>
       </c>
       <c r="B43">
-        <v>566</v>
+        <v>930</v>
       </c>
       <c r="C43">
-        <v>767.424358177473</v>
+        <v>1177.26786205411</v>
       </c>
       <c r="D43">
-        <v>60853.2956043138</v>
+        <v>12525.8782317954</v>
       </c>
       <c r="E43">
-        <v>2.11981470259727</v>
+        <v>1.08246425669948</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>4726191.57739522</v>
+        <v>4754653.59631818</v>
       </c>
       <c r="B44">
-        <v>243</v>
+        <v>1735</v>
       </c>
       <c r="C44">
-        <v>1312.61232360483</v>
+        <v>1299.39801799923</v>
       </c>
       <c r="D44">
-        <v>36954.4081086174</v>
+        <v>7980.87147571036</v>
       </c>
       <c r="E44">
-        <v>2.12280428250451</v>
+        <v>3.41051964850625</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>4749258.90215836</v>
+        <v>4756279.03065694</v>
       </c>
       <c r="B45">
-        <v>1614</v>
+        <v>74</v>
       </c>
       <c r="C45">
-        <v>888.975632992044</v>
+        <v>1741.24863226884</v>
       </c>
       <c r="D45">
-        <v>11578.7675613194</v>
+        <v>6050.06948800562</v>
       </c>
       <c r="E45">
-        <v>0.90954921274964</v>
+        <v>0.567899383272255</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>4768231.8878355</v>
+        <v>4760077.70481694</v>
       </c>
       <c r="B46">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C46">
-        <v>1345.66296339909</v>
+        <v>1347.1467226821</v>
       </c>
       <c r="D46">
-        <v>35624.0594093123</v>
+        <v>6050.06948800562</v>
       </c>
       <c r="E46">
-        <v>1.99826581770903</v>
+        <v>0.383737096126864</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>4890675.60964596</v>
+        <v>4781986.0992183</v>
       </c>
       <c r="B47">
-        <v>525</v>
+        <v>2193</v>
       </c>
       <c r="C47">
-        <v>1345.66296339909</v>
+        <v>688.31123645867</v>
       </c>
       <c r="D47">
-        <v>38152.0724271165</v>
+        <v>2230.40034015676</v>
       </c>
       <c r="E47">
-        <v>2.95285483296954</v>
+        <v>0.290621261150894</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>4890945.99728446</v>
+        <v>4799240.59553133</v>
       </c>
       <c r="B48">
-        <v>1429</v>
+        <v>1940</v>
       </c>
       <c r="C48">
-        <v>888.975632992044</v>
+        <v>702.3630828287</v>
       </c>
       <c r="D48">
-        <v>18678.5003908281</v>
+        <v>10974.915026833</v>
       </c>
       <c r="E48">
-        <v>1.38098867490412</v>
+        <v>0.688961271422206</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>4891051.1105735</v>
+        <v>4857738.02545234</v>
       </c>
       <c r="B49">
-        <v>1429</v>
+        <v>74</v>
       </c>
       <c r="C49">
-        <v>888.975632992044</v>
+        <v>1647.35222069451</v>
       </c>
       <c r="D49">
-        <v>14285.7142857143</v>
+        <v>3921.25937717333</v>
       </c>
       <c r="E49">
-        <v>1.07567331068217</v>
+        <v>0.423338667444872</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>5137781.63355525</v>
+        <v>4898137.18012948</v>
       </c>
       <c r="B50">
-        <v>1429</v>
+        <v>1951</v>
       </c>
       <c r="C50">
-        <v>1428.57142857143</v>
+        <v>1104.42959378647</v>
       </c>
       <c r="D50">
-        <v>14285.7142857143</v>
+        <v>15227.1124178217</v>
       </c>
       <c r="E50">
-        <v>4.67435159962257</v>
+        <v>2.66438839604908</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>5243286.8341935</v>
+        <v>4916791.39568914</v>
       </c>
       <c r="B51">
-        <v>28</v>
+        <v>3161</v>
       </c>
       <c r="C51">
-        <v>1566.73089998291</v>
+        <v>688.31123645867</v>
       </c>
       <c r="D51">
-        <v>49937.7262219363</v>
+        <v>13270.595809061</v>
       </c>
       <c r="E51">
-        <v>3.7548609565155</v>
+        <v>1.5359077016401</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>5372036.37484893</v>
+        <v>5459487.11076309</v>
       </c>
       <c r="B52">
-        <v>1238</v>
+        <v>74</v>
       </c>
       <c r="C52">
-        <v>377.021133604507</v>
+        <v>1647.35222069451</v>
       </c>
       <c r="D52">
-        <v>33856.8588285422</v>
+        <v>16064.0985139382</v>
       </c>
       <c r="E52">
-        <v>1.10248340927903</v>
+        <v>1.63079160881662</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>5372789.18801249</v>
+        <v>5460067.64784321</v>
       </c>
       <c r="B53">
-        <v>1238</v>
+        <v>74</v>
       </c>
       <c r="C53">
-        <v>377.021133604507</v>
+        <v>1647.35222069451</v>
       </c>
       <c r="D53">
-        <v>40632.177300568</v>
+        <v>10838.5429450162</v>
       </c>
       <c r="E53">
-        <v>1.31915016744737</v>
+        <v>1.1496839777212</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>5626589.46453093</v>
+        <v>5523431.62081819</v>
       </c>
       <c r="B54">
-        <v>2489</v>
+        <v>1735</v>
       </c>
       <c r="C54">
-        <v>1331.6192496032</v>
+        <v>1194.63232311012</v>
       </c>
       <c r="D54">
-        <v>7918.27444704535</v>
+        <v>17974.5459898293</v>
       </c>
       <c r="E54">
-        <v>-1.32718153704894</v>
+        <v>10.9906893214372</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>5704114.3809105</v>
+        <v>5591136.72136063</v>
       </c>
       <c r="B55">
-        <v>2027</v>
+        <v>129</v>
       </c>
       <c r="C55">
-        <v>21.778586646912</v>
+        <v>688.31123645867</v>
       </c>
       <c r="D55">
-        <v>4875.45105161064</v>
+        <v>48419.0616969494</v>
       </c>
       <c r="E55">
-        <v>0.155647392315571</v>
+        <v>1.32421647616047</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>5772296.63490204</v>
+        <v>5636589.41540645</v>
       </c>
       <c r="B56">
-        <v>1429</v>
+        <v>1735</v>
       </c>
       <c r="C56">
-        <v>1428.57142857143</v>
+        <v>1579.26748838835</v>
       </c>
       <c r="D56">
-        <v>28991.0735013373</v>
+        <v>4383.19919641279</v>
       </c>
       <c r="E56">
-        <v>-38.9339986653005</v>
+        <v>-0.927033277876202</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>5772915.99521003</v>
+        <v>5813303.86444934</v>
       </c>
       <c r="B57">
-        <v>1429</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>1428.57142857143</v>
+        <v>688.31123645867</v>
       </c>
       <c r="D57">
-        <v>34565.3162732493</v>
+        <v>36685.1619638617</v>
       </c>
       <c r="E57">
-        <v>-45.7562169324687</v>
+        <v>0.968333786410188</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>5828747.36616628</v>
+        <v>5832722.16020726</v>
       </c>
       <c r="B58">
-        <v>419</v>
+        <v>2193</v>
       </c>
       <c r="C58">
-        <v>1722.57579517156</v>
+        <v>688.31123645867</v>
       </c>
       <c r="D58">
-        <v>32313.7860511926</v>
+        <v>25965.9396569562</v>
       </c>
       <c r="E58">
-        <v>8.10906456540213</v>
+        <v>2.71425647506446</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>5848784.97940892</v>
+        <v>5925308.51685113</v>
       </c>
       <c r="B59">
-        <v>1691</v>
+        <v>2106</v>
       </c>
       <c r="C59">
-        <v>167.578580605131</v>
+        <v>1152.66483027074</v>
       </c>
       <c r="D59">
-        <v>9262.85712726063</v>
+        <v>26.3880657270784</v>
       </c>
       <c r="E59">
-        <v>0.313708910443712</v>
+        <v>-0.866305110726422</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>6003228.66216901</v>
+        <v>5926965.91023094</v>
       </c>
       <c r="B60">
-        <v>566</v>
+        <v>4804</v>
       </c>
       <c r="C60">
-        <v>386.722201473062</v>
+        <v>688.31123645867</v>
       </c>
       <c r="D60">
-        <v>43576.4776806259</v>
+        <v>9433.46847021591</v>
       </c>
       <c r="E60">
-        <v>1.1063267364398</v>
+        <v>-0.929822141318822</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>6102329.03568817</v>
+        <v>6179083.68838874</v>
       </c>
       <c r="B61">
-        <v>1238</v>
+        <v>2193</v>
       </c>
       <c r="C61">
-        <v>91.7962932535224</v>
+        <v>196.294808264245</v>
       </c>
       <c r="D61">
-        <v>23939.2158603718</v>
+        <v>71688.8314813816</v>
       </c>
       <c r="E61">
-        <v>0.617957864305689</v>
+        <v>3.03980383624775</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>6103101.86959711</v>
+        <v>6180623.17725907</v>
       </c>
       <c r="B62">
-        <v>1238</v>
+        <v>2494</v>
       </c>
       <c r="C62">
-        <v>91.7962932535224</v>
+        <v>160.835725656541</v>
       </c>
       <c r="D62">
-        <v>30894.7210408958</v>
+        <v>12188.1946736705</v>
       </c>
       <c r="E62">
-        <v>0.79489811977388</v>
+        <v>0.550667315638108</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>6108409.94781631</v>
+        <v>6251639.69258128</v>
       </c>
       <c r="B63">
-        <v>1238</v>
+        <v>260</v>
       </c>
       <c r="C63">
-        <v>91.7962932535224</v>
+        <v>470.334033426773</v>
       </c>
       <c r="D63">
-        <v>78667.4250136646</v>
+        <v>16064.0985139382</v>
       </c>
       <c r="E63">
-        <v>2.01143189194673</v>
+        <v>0.399420071196103</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>6135369.96305367</v>
+        <v>6252148.38279637</v>
       </c>
       <c r="B64">
-        <v>1976</v>
+        <v>260</v>
       </c>
       <c r="C64">
-        <v>91.7962932535224</v>
+        <v>470.334033426773</v>
       </c>
       <c r="D64">
-        <v>10364.0062879546</v>
+        <v>23408.4723845866</v>
       </c>
       <c r="E64">
-        <v>0.367511890082947</v>
+        <v>0.576294545883807</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>6149136.2507817</v>
+        <v>6252500.48644199</v>
       </c>
       <c r="B65">
-        <v>3150</v>
+        <v>260</v>
       </c>
       <c r="C65">
-        <v>206.370913463665</v>
+        <v>470.334033426773</v>
       </c>
       <c r="D65">
-        <v>14285.7142857143</v>
+        <v>26577.405195235</v>
       </c>
       <c r="E65">
-        <v>0.762466525065899</v>
+        <v>0.652626182597358</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>6235656.58504754</v>
+        <v>6252884.7358384</v>
       </c>
       <c r="B66">
-        <v>1168</v>
+        <v>260</v>
       </c>
       <c r="C66">
-        <v>71.2717625534669</v>
+        <v>470.334033426773</v>
       </c>
       <c r="D66">
-        <v>23154.0133381625</v>
+        <v>30035.6497628407</v>
       </c>
       <c r="E66">
-        <v>0.575173886454636</v>
+        <v>0.735936427329009</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>6394790.08769353</v>
+        <v>6253413.01932385</v>
       </c>
       <c r="B67">
-        <v>1238</v>
+        <v>260</v>
       </c>
       <c r="C67">
-        <v>1.64965757636018</v>
+        <v>470.334033426773</v>
       </c>
       <c r="D67">
-        <v>23939.2158603718</v>
+        <v>52.0789153674741</v>
       </c>
       <c r="E67">
-        <v>0.578372601306576</v>
+        <v>0.0139628235535657</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>6442216.1819046</v>
+        <v>6254315.18772965</v>
       </c>
       <c r="B68">
-        <v>2327</v>
+        <v>260</v>
       </c>
       <c r="C68">
-        <v>91.7962932535224</v>
+        <v>470.334033426773</v>
       </c>
       <c r="D68">
-        <v>20712.5817210062</v>
+        <v>42909.7167841841</v>
       </c>
       <c r="E68">
-        <v>0.852007868138156</v>
+        <v>1.04616698940942</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>6615277.51049547</v>
+        <v>6255413.42975236</v>
       </c>
       <c r="B69">
-        <v>566</v>
+        <v>260</v>
       </c>
       <c r="C69">
-        <v>242.722893422031</v>
+        <v>470.334033426773</v>
       </c>
       <c r="D69">
-        <v>65116.2825099551</v>
+        <v>52793.8949885415</v>
       </c>
       <c r="E69">
-        <v>1.49212084197499</v>
+        <v>1.28444563649357</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>6739058.68631455</v>
+        <v>6371086.15577809</v>
       </c>
       <c r="B70">
-        <v>2578</v>
+        <v>144</v>
       </c>
       <c r="C70">
-        <v>91.7962932535224</v>
+        <v>496.354678859733</v>
       </c>
       <c r="D70">
-        <v>56150.1439916217</v>
+        <v>14136.9791227768</v>
       </c>
       <c r="E70">
-        <v>2.61813729966257</v>
+        <v>0.346416089492786</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>6743776.19722604</v>
+        <v>6389857.56473235</v>
       </c>
       <c r="B71">
-        <v>2578</v>
+        <v>1201</v>
       </c>
       <c r="C71">
-        <v>91.7962932535224</v>
+        <v>16.2125821292479</v>
       </c>
       <c r="D71">
-        <v>98607.7421950807</v>
+        <v>57337.921033653</v>
       </c>
       <c r="E71">
-        <v>4.58128336908305</v>
+        <v>1.37451443710049</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>6754006.49839304</v>
+        <v>6455180.16408434</v>
       </c>
       <c r="B72">
-        <v>214</v>
+        <v>3544</v>
       </c>
       <c r="C72">
-        <v>373.215777424349</v>
+        <v>688.31123645867</v>
       </c>
       <c r="D72">
-        <v>14285.7142857143</v>
+        <v>21823.4508844109</v>
       </c>
       <c r="E72">
-        <v>0.327692882679384</v>
+        <v>8.17114306770168</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>7123413.22147789</v>
+        <v>6461337.53887639</v>
       </c>
       <c r="B73">
-        <v>243</v>
+        <v>1074</v>
       </c>
       <c r="C73">
-        <v>272.839537791383</v>
+        <v>45.1520426685627</v>
       </c>
       <c r="D73">
-        <v>36954.4081086174</v>
+        <v>74460.2453459874</v>
       </c>
       <c r="E73">
-        <v>0.788103221889183</v>
+        <v>1.74786502547381</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>7138607.33497222</v>
+        <v>6484051.68385293</v>
       </c>
       <c r="B74">
-        <v>1614</v>
+        <v>103</v>
       </c>
       <c r="C74">
-        <v>2083.02114427493</v>
+        <v>2000.30802075851</v>
       </c>
       <c r="D74">
-        <v>4875.45105161064</v>
+        <v>24499.8824586789</v>
       </c>
       <c r="E74">
-        <v>-0.373406618945513</v>
+        <v>47.9307448106702</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>7253408.98536369</v>
+        <v>6484355.46086644</v>
       </c>
       <c r="B75">
-        <v>2947</v>
+        <v>74</v>
       </c>
       <c r="C75">
-        <v>91.7962932535224</v>
+        <v>502.463177438949</v>
       </c>
       <c r="D75">
-        <v>37080.1979799716</v>
+        <v>3921.25937717333</v>
       </c>
       <c r="E75">
-        <v>2.24284393599166</v>
+        <v>0.103050966895429</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>7303217.51483389</v>
+        <v>6518035.45007371</v>
       </c>
       <c r="B76">
-        <v>2578</v>
+        <v>3991</v>
       </c>
       <c r="C76">
-        <v>1388.12149860211</v>
+        <v>322.516869298527</v>
       </c>
       <c r="D76">
-        <v>66543.2651874225</v>
+        <v>3911.48448422879</v>
       </c>
       <c r="E76">
-        <v>-4.63555910159164</v>
+        <v>13.4997436669216</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>7377633.69232915</v>
+        <v>6553401.62032838</v>
       </c>
       <c r="B77">
-        <v>501</v>
+        <v>1940</v>
       </c>
       <c r="C77">
-        <v>91.7962932535224</v>
+        <v>1819.36259762494</v>
       </c>
       <c r="D77">
-        <v>17224.1853032643</v>
+        <v>10974.915026833</v>
       </c>
       <c r="E77">
-        <v>0.355494570092913</v>
+        <v>-0.944349518901885</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>7455834.2714204</v>
+        <v>6698041.83101096</v>
       </c>
       <c r="B78">
-        <v>462</v>
+        <v>74</v>
       </c>
       <c r="C78">
-        <v>91.7962932535224</v>
+        <v>2383.85759277314</v>
       </c>
       <c r="D78">
-        <v>28221.0825173671</v>
+        <v>8144.79205499261</v>
       </c>
       <c r="E78">
-        <v>0.573737257169639</v>
+        <v>-1.79111076087137</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>7524860.0171083</v>
+        <v>6903649.03152088</v>
       </c>
       <c r="B79">
-        <v>566</v>
+        <v>670</v>
       </c>
       <c r="C79">
-        <v>2230.99981595962</v>
+        <v>125.114934828351</v>
       </c>
       <c r="D79">
-        <v>22924.7788488217</v>
+        <v>2743.90817273792</v>
       </c>
       <c r="E79">
-        <v>-2.10329754269857</v>
+        <v>0.0657881156593237</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>7754291.14725111</v>
+        <v>7110735.93822835</v>
       </c>
       <c r="B80">
-        <v>4837</v>
+        <v>74</v>
       </c>
       <c r="C80">
-        <v>91.7962932535224</v>
+        <v>2436.52990458544</v>
       </c>
       <c r="D80">
-        <v>23939.2158603718</v>
+        <v>4937.76001340747</v>
       </c>
       <c r="E80">
-        <v>2.59404275711333</v>
+        <v>-0.788174574977582</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>7763323.41223852</v>
+        <v>7212484.76985692</v>
       </c>
       <c r="B81">
-        <v>2778</v>
+        <v>116</v>
       </c>
       <c r="C81">
-        <v>1428.57142857143</v>
+        <v>310.66735125792</v>
       </c>
       <c r="D81">
-        <v>65701.4563799626</v>
+        <v>15711.5718559884</v>
       </c>
       <c r="E81">
-        <v>-3.65341723494037</v>
+        <v>0.33485442828289</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>7869912.35576811</v>
+        <v>7414441.11022866</v>
       </c>
       <c r="B82">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C82">
-        <v>100.028842860436</v>
+        <v>196.063707221348</v>
       </c>
       <c r="D82">
-        <v>3712.86752194362</v>
+        <v>7758.73096641611</v>
       </c>
       <c r="E82">
-        <v>0.0739115836660496</v>
+        <v>0.162667138286181</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>7870998.1991376</v>
+        <v>7480130.01197346</v>
       </c>
       <c r="B83">
-        <v>3440</v>
+        <v>260</v>
       </c>
       <c r="C83">
-        <v>232.182572755174</v>
+        <v>180.590622613684</v>
       </c>
       <c r="D83">
-        <v>141.146768979943</v>
+        <v>34960.4205505954</v>
       </c>
       <c r="E83">
-        <v>0.175791095286823</v>
+        <v>0.70853250143466</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>8222818.02005358</v>
+        <v>7716587.04772686</v>
       </c>
       <c r="B84">
-        <v>566</v>
+        <v>477</v>
       </c>
       <c r="C84">
-        <v>2436.17305985464</v>
+        <v>24.8184490442125</v>
       </c>
       <c r="D84">
-        <v>43576.4776806259</v>
+        <v>89873.9790747877</v>
       </c>
       <c r="E84">
-        <v>-2.59094739081656</v>
+        <v>1.75897712389508</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>8237228.19962943</v>
+        <v>7735881.33270402</v>
       </c>
       <c r="B85">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="C85">
-        <v>91.7962932535224</v>
+        <v>119.756509327385</v>
       </c>
       <c r="D85">
-        <v>48130.6320850022</v>
+        <v>18720.294663214</v>
       </c>
       <c r="E85">
-        <v>0.882019239140939</v>
+        <v>0.367648194357467</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>8551081.26259699</v>
+        <v>7898402.02579682</v>
       </c>
       <c r="B86">
-        <v>50</v>
+        <v>2857</v>
       </c>
       <c r="C86">
-        <v>25.9513333088087</v>
+        <v>1428.57142857143</v>
       </c>
       <c r="D86">
-        <v>43500.3937574762</v>
+        <v>42857.1428571429</v>
       </c>
       <c r="E86">
-        <v>0.766743038853377</v>
+        <v>-2.29598861103072</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>10491134.7767536</v>
+        <v>8112188.08579235</v>
       </c>
       <c r="B87">
-        <v>5883</v>
+        <v>74</v>
       </c>
       <c r="C87">
-        <v>424.071419906671</v>
+        <v>2569.61012146146</v>
       </c>
       <c r="D87">
-        <v>3029.14138221848</v>
+        <v>621.056372620566</v>
       </c>
       <c r="E87">
-        <v>-0.161201617725934</v>
+        <v>-0.214180445219542</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>10510053.8546088</v>
+        <v>10364266.1996926</v>
       </c>
       <c r="B88">
-        <v>4286</v>
+        <v>1429</v>
       </c>
       <c r="C88">
-        <v>1428.57142857143</v>
+        <v>2857.14285714286</v>
       </c>
       <c r="D88">
-        <v>42857.1428571429</v>
+        <v>28571.4285714286</v>
       </c>
       <c r="E88">
-        <v>-1.17982610035354</v>
+        <v>-0.805339075015559</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>12628346.2198874</v>
+        <v>12019546.9208283</v>
       </c>
       <c r="B89">
-        <v>2360</v>
+        <v>5707</v>
       </c>
       <c r="C89">
-        <v>3454.02672480537</v>
+        <v>470.334033426773</v>
       </c>
       <c r="D89">
-        <v>13646.0382882521</v>
+        <v>52793.8949885415</v>
       </c>
       <c r="E89">
-        <v>-0.272968981262614</v>
+        <v>-1.81384887483785</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>12885596.7468154</v>
+        <v>13030788.5263131</v>
       </c>
       <c r="B90">
-        <v>2857</v>
+        <v>4286</v>
       </c>
       <c r="C90">
         <v>2857.14285714286</v>
       </c>
       <c r="D90">
-        <v>85714.2857142857</v>
+        <v>28571.4285714286</v>
       </c>
       <c r="E90">
-        <v>-1.49204694551089</v>
+        <v>-0.497989885749606</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>16082079.7548086</v>
+        <v>15997295.8642399</v>
       </c>
       <c r="B91">
-        <v>1429</v>
+        <v>7143</v>
       </c>
       <c r="C91">
-        <v>4285.71428571429</v>
+        <v>1428.57142857143</v>
       </c>
       <c r="D91">
         <v>100000</v>
       </c>
       <c r="E91">
-        <v>-1.28782547987361</v>
+        <v>-1.35674654164725</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>20500500.1605763</v>
+        <v>16082079.7548086</v>
       </c>
       <c r="B92">
-        <v>8571</v>
+        <v>1429</v>
       </c>
       <c r="C92">
-        <v>2857.14285714286</v>
+        <v>4285.71428571429</v>
       </c>
       <c r="D92">
-        <v>42857.1428571429</v>
+        <v>100000</v>
       </c>
       <c r="E92">
-        <v>-0.37527795804088</v>
+        <v>-1.28782547987361</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>23628053.4271562</v>
+        <v>23392513.0505901</v>
       </c>
       <c r="B93">
-        <v>7143</v>
+        <v>2857</v>
       </c>
       <c r="C93">
-        <v>4285.71428571429</v>
+        <v>7142.85714285714</v>
       </c>
       <c r="D93">
-        <v>28571.4285714286</v>
+        <v>71428.5714285714</v>
       </c>
       <c r="E93">
-        <v>-0.235061096100327</v>
+        <v>-0.580372579150286</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2003,36 +2003,36 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>28583024.5569083</v>
+        <v>26486791.3739845</v>
       </c>
       <c r="B96">
-        <v>4286</v>
+        <v>8571</v>
       </c>
       <c r="C96">
-        <v>7142.85714285714</v>
+        <v>4285.71428571429</v>
       </c>
       <c r="D96">
-        <v>85714.2857142857</v>
+        <v>42857.1428571429</v>
       </c>
       <c r="E96">
-        <v>-0.546033592895738</v>
+        <v>-0.291197158597544</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>31120319.0068568</v>
+        <v>35769032.2455191</v>
       </c>
       <c r="B97">
-        <v>2857</v>
+        <v>7143</v>
       </c>
       <c r="C97">
         <v>8571.42857142857</v>
       </c>
       <c r="D97">
-        <v>71428.5714285714</v>
+        <v>85714.2857142857</v>
       </c>
       <c r="E97">
-        <v>-0.41902506530925</v>
+        <v>-0.419167231398842</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2054,53 +2054,53 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>44019148.3282765</v>
+        <v>42587920.866195</v>
       </c>
       <c r="B99">
-        <v>8571</v>
+        <v>4286</v>
       </c>
       <c r="C99">
-        <v>8571.42857142857</v>
+        <v>10000</v>
       </c>
       <c r="D99">
-        <v>28571.4285714286</v>
+        <v>14285.7142857143</v>
       </c>
       <c r="E99">
-        <v>-0.135599638848477</v>
+        <v>-0.0920120931202576</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>47592777.8205084</v>
+        <v>45119947.3496604</v>
       </c>
       <c r="B100">
-        <v>7143</v>
+        <v>10000</v>
       </c>
       <c r="C100">
-        <v>10000</v>
+        <v>8571.42857142857</v>
       </c>
       <c r="D100">
-        <v>71428.5714285714</v>
+        <v>85714.2857142857</v>
       </c>
       <c r="E100">
-        <v>-0.264468518384308</v>
+        <v>-0.329410427809074</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>48114593.7969189</v>
+        <v>50398515.534263</v>
       </c>
       <c r="B101">
-        <v>10000</v>
+        <v>8571</v>
       </c>
       <c r="C101">
         <v>10000</v>
       </c>
       <c r="D101">
-        <v>100000</v>
+        <v>71428.5714285714</v>
       </c>
       <c r="E101">
-        <v>-0.359484835406912</v>
+        <v>-0.250583507781811</v>
       </c>
     </row>
   </sheetData>

--- a/Engine/results.xlsx
+++ b/Engine/results.xlsx
@@ -405,1469 +405,1469 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>3959902.50961866</v>
+        <v>3810756.78093064</v>
       </c>
       <c r="B2">
-        <v>1886</v>
+        <v>1480</v>
       </c>
       <c r="C2">
-        <v>1171.9643175351</v>
+        <v>792.701735989073</v>
       </c>
       <c r="D2">
-        <v>10974.915026833</v>
+        <v>4742.9665155198</v>
       </c>
       <c r="E2">
-        <v>1.07468276597977</v>
+        <v>0.285402434006795</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>3960480.09162109</v>
+        <v>3847352.9440034</v>
       </c>
       <c r="B3">
-        <v>1940</v>
+        <v>1480</v>
       </c>
       <c r="C3">
-        <v>1124.20017211752</v>
+        <v>770.985629210649</v>
       </c>
       <c r="D3">
-        <v>10974.915026833</v>
+        <v>4941.21253603673</v>
       </c>
       <c r="E3">
-        <v>1.03140710937777</v>
+        <v>0.282970421877938</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>4010371.32570086</v>
+        <v>3851140.48081272</v>
       </c>
       <c r="B4">
-        <v>396</v>
+        <v>1480</v>
       </c>
       <c r="C4">
-        <v>1228.63934093385</v>
+        <v>849.722587024833</v>
       </c>
       <c r="D4">
-        <v>3497.86269313026</v>
+        <v>4941.21253603673</v>
       </c>
       <c r="E4">
-        <v>0.216173366231358</v>
+        <v>0.330170422730092</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>4026197.58135318</v>
+        <v>3858697.99543544</v>
       </c>
       <c r="B5">
-        <v>396</v>
+        <v>1617</v>
       </c>
       <c r="C5">
-        <v>1219.62589442943</v>
+        <v>739.507967920055</v>
       </c>
       <c r="D5">
-        <v>3497.86269313026</v>
+        <v>4941.21253603673</v>
       </c>
       <c r="E5">
-        <v>0.21523971268305</v>
+        <v>0.295112411841623</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4033024.09422271</v>
+        <v>3868704.60901371</v>
       </c>
       <c r="B6">
-        <v>1886</v>
+        <v>1608</v>
       </c>
       <c r="C6">
-        <v>1171.9643175351</v>
+        <v>752.33164005286</v>
       </c>
       <c r="D6">
-        <v>11328.874267167</v>
+        <v>4588.43844529101</v>
       </c>
       <c r="E6">
-        <v>1.1507501346763</v>
+        <v>0.287278642971784</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>4033851.68651351</v>
+        <v>3875632.00742305</v>
       </c>
       <c r="B7">
-        <v>1735</v>
+        <v>1480</v>
       </c>
       <c r="C7">
-        <v>922.018656486589</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D7">
-        <v>6691.28078378206</v>
+        <v>4941.21253603673</v>
       </c>
       <c r="E7">
-        <v>0.574293820832444</v>
+        <v>0.359357499346237</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>4053717.43503537</v>
+        <v>3877679.69610705</v>
       </c>
       <c r="B8">
-        <v>1818</v>
+        <v>1480</v>
       </c>
       <c r="C8">
-        <v>1076.45625434502</v>
+        <v>793.108304608571</v>
       </c>
       <c r="D8">
-        <v>10974.915026833</v>
+        <v>3868.66391509577</v>
       </c>
       <c r="E8">
-        <v>0.966199351097807</v>
+        <v>0.254751267683134</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>4076856.00883969</v>
+        <v>3880692.95595834</v>
       </c>
       <c r="B9">
-        <v>534</v>
+        <v>1340</v>
       </c>
       <c r="C9">
-        <v>1228.63934093385</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D9">
-        <v>4159.44878692765</v>
+        <v>3724.88061318363</v>
       </c>
       <c r="E9">
-        <v>0.273128756852189</v>
+        <v>0.270474055726732</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>4093824.21848509</v>
+        <v>3883061.62912319</v>
       </c>
       <c r="B10">
-        <v>550</v>
+        <v>1480</v>
       </c>
       <c r="C10">
-        <v>1017.77795749442</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D10">
-        <v>3497.86269313026</v>
+        <v>5099.4102571827</v>
       </c>
       <c r="E10">
-        <v>0.191020114716917</v>
+        <v>0.366212709371976</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>4111345.76577212</v>
+        <v>3899346.5600161</v>
       </c>
       <c r="B11">
-        <v>1886</v>
+        <v>1480</v>
       </c>
       <c r="C11">
-        <v>1121.89355817734</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D11">
-        <v>11685.6928560532</v>
+        <v>5301.68396185874</v>
       </c>
       <c r="E11">
-        <v>1.15357379190248</v>
+        <v>0.373353473844784</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>4132933.87652879</v>
+        <v>3901321.20645691</v>
       </c>
       <c r="B12">
-        <v>1640</v>
+        <v>1480</v>
       </c>
       <c r="C12">
-        <v>1124.20017211752</v>
+        <v>857.209795921401</v>
       </c>
       <c r="D12">
-        <v>10974.915026833</v>
+        <v>3294.94655338834</v>
       </c>
       <c r="E12">
-        <v>0.99568643817889</v>
+        <v>0.258073032726675</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>4171489.34835496</v>
+        <v>3901578.60885041</v>
       </c>
       <c r="B13">
-        <v>532</v>
+        <v>1348</v>
       </c>
       <c r="C13">
-        <v>1228.63934093385</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D13">
-        <v>3497.86269313026</v>
+        <v>3157.23657818223</v>
       </c>
       <c r="E13">
-        <v>0.25976021254317</v>
+        <v>0.242792022341999</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>4185260.82066281</v>
+        <v>3907017.74415671</v>
       </c>
       <c r="B14">
-        <v>371</v>
+        <v>1586</v>
       </c>
       <c r="C14">
-        <v>1147.92381221112</v>
+        <v>880.237039508552</v>
       </c>
       <c r="D14">
-        <v>1605.917419114</v>
+        <v>5093.20344861765</v>
       </c>
       <c r="E14">
-        <v>0.130536903214622</v>
+        <v>0.392446257079999</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>4189836.3644077</v>
+        <v>3921697.88414204</v>
       </c>
       <c r="B15">
-        <v>443</v>
+        <v>1480</v>
       </c>
       <c r="C15">
-        <v>1228.63934093385</v>
+        <v>736.967708253454</v>
       </c>
       <c r="D15">
-        <v>2949.11645268523</v>
+        <v>4242.00555134723</v>
       </c>
       <c r="E15">
-        <v>0.220609630490139</v>
+        <v>0.246854261138953</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>4201362.86080875</v>
+        <v>3944412.28722</v>
       </c>
       <c r="B16">
-        <v>365</v>
+        <v>1435</v>
       </c>
       <c r="C16">
-        <v>1273.87514233763</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D16">
-        <v>3497.86269313026</v>
+        <v>5757.65651580115</v>
       </c>
       <c r="E16">
-        <v>0.23950328238224</v>
+        <v>0.379709182012551</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>4220572.82145804</v>
+        <v>3945821.66126106</v>
       </c>
       <c r="B17">
-        <v>396</v>
+        <v>981</v>
       </c>
       <c r="C17">
-        <v>1096.08707995088</v>
+        <v>1022.55334345391</v>
       </c>
       <c r="D17">
-        <v>3497.86269313026</v>
+        <v>4746.71882962853</v>
       </c>
       <c r="E17">
-        <v>0.199421948208594</v>
+        <v>0.306272566393438</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>4224327.93157988</v>
+        <v>3951293.4769674</v>
       </c>
       <c r="B18">
-        <v>335</v>
+        <v>1416</v>
       </c>
       <c r="C18">
-        <v>1210.92925449964</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D18">
-        <v>2019.84982714215</v>
+        <v>2894.76857229332</v>
       </c>
       <c r="E18">
-        <v>0.159473636586238</v>
+        <v>0.243037710063721</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>4225450.17129232</v>
+        <v>3975229.8266604</v>
       </c>
       <c r="B19">
-        <v>74</v>
+        <v>1593</v>
       </c>
       <c r="C19">
-        <v>1210.92925449964</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D19">
-        <v>2019.84982714215</v>
+        <v>7492.24125491284</v>
       </c>
       <c r="E19">
-        <v>0.129296882962788</v>
+        <v>0.456523638807873</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>4246061.99163235</v>
+        <v>3981895.49968627</v>
       </c>
       <c r="B20">
-        <v>1587</v>
+        <v>1574</v>
       </c>
       <c r="C20">
-        <v>756.835846359976</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D20">
-        <v>7215.38948345394</v>
+        <v>7492.24125491284</v>
       </c>
       <c r="E20">
-        <v>0.387420284254659</v>
+        <v>0.453792091695951</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>4280430.86373849</v>
+        <v>4001755.64759241</v>
       </c>
       <c r="B21">
-        <v>717</v>
+        <v>1539</v>
       </c>
       <c r="C21">
-        <v>1210.92925449964</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D21">
-        <v>2019.84982714215</v>
+        <v>7492.24125491284</v>
       </c>
       <c r="E21">
-        <v>0.217729066635057</v>
+        <v>0.450133036232049</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>4304635.4080402</v>
+        <v>4055362.20656925</v>
       </c>
       <c r="B22">
-        <v>252</v>
+        <v>1612</v>
       </c>
       <c r="C22">
-        <v>1288.81277057524</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D22">
-        <v>3889.38518466133</v>
+        <v>7492.24125491284</v>
       </c>
       <c r="E22">
-        <v>0.247962501473404</v>
+        <v>0.486890017457043</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>4326511.8133186</v>
+        <v>4091127.84600012</v>
       </c>
       <c r="B23">
-        <v>436</v>
+        <v>1593</v>
       </c>
       <c r="C23">
-        <v>1295.87420629452</v>
+        <v>1030.42427675926</v>
       </c>
       <c r="D23">
-        <v>2600.62595572881</v>
+        <v>7492.24125491284</v>
       </c>
       <c r="E23">
-        <v>0.231776426207834</v>
+        <v>0.683864423136252</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>4327888.73798654</v>
+        <v>4092589.44264201</v>
       </c>
       <c r="B24">
-        <v>1735</v>
+        <v>1630</v>
       </c>
       <c r="C24">
-        <v>1104.42959378647</v>
+        <v>1022.55334345391</v>
       </c>
       <c r="D24">
-        <v>6374.05102123468</v>
+        <v>6947.21541881574</v>
       </c>
       <c r="E24">
-        <v>1.03269767363266</v>
+        <v>0.680433787379498</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>4335110.56957052</v>
+        <v>4109135.4404287</v>
       </c>
       <c r="B25">
-        <v>1769</v>
+        <v>1480</v>
       </c>
       <c r="C25">
-        <v>1124.20017211752</v>
+        <v>1042.58143201635</v>
       </c>
       <c r="D25">
-        <v>12355.6374772958</v>
+        <v>4661.09651272204</v>
       </c>
       <c r="E25">
-        <v>1.3192756611287</v>
+        <v>0.509340179430123</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>4340271.99178301</v>
+        <v>4127948.85059729</v>
       </c>
       <c r="B26">
-        <v>1940</v>
+        <v>1371</v>
       </c>
       <c r="C26">
-        <v>1495.09583719564</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D26">
-        <v>13486.3261099493</v>
+        <v>7492.24125491284</v>
       </c>
       <c r="E26">
-        <v>2.73720218064555</v>
+        <v>0.435995789566872</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>4349268.62506608</v>
+        <v>4150089.9903169</v>
       </c>
       <c r="B27">
-        <v>1940</v>
+        <v>2168</v>
       </c>
       <c r="C27">
-        <v>1124.20017211752</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D27">
-        <v>13053.0161489742</v>
+        <v>10446.966014536</v>
       </c>
       <c r="E27">
-        <v>1.51117763435632</v>
+        <v>0.779116761379869</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>4355528.92772649</v>
+        <v>4166559.99428197</v>
       </c>
       <c r="B28">
-        <v>468</v>
+        <v>858</v>
       </c>
       <c r="C28">
-        <v>1210.92925449964</v>
+        <v>1059.92178896587</v>
       </c>
       <c r="D28">
-        <v>925.648361105647</v>
+        <v>1419.25840163854</v>
       </c>
       <c r="E28">
-        <v>0.122126858483656</v>
+        <v>0.150874356645709</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>4363905.88993953</v>
+        <v>4184908.7081319</v>
       </c>
       <c r="B29">
-        <v>757</v>
+        <v>294</v>
       </c>
       <c r="C29">
-        <v>1210.92925449964</v>
+        <v>1059.92178896587</v>
       </c>
       <c r="D29">
-        <v>1379.22001276908</v>
+        <v>1419.25840163854</v>
       </c>
       <c r="E29">
-        <v>0.187152242283562</v>
+        <v>0.101084163498593</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>4377553.89255572</v>
+        <v>4236396.52508314</v>
       </c>
       <c r="B30">
-        <v>2384</v>
+        <v>1518</v>
       </c>
       <c r="C30">
-        <v>1124.20017211752</v>
+        <v>724.445611661838</v>
       </c>
       <c r="D30">
-        <v>14165.8022375964</v>
+        <v>6295.92737192077</v>
       </c>
       <c r="E30">
-        <v>1.9761708135048</v>
+        <v>0.320556693683452</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>4399217.02233761</v>
+        <v>4311295.80791395</v>
       </c>
       <c r="B31">
-        <v>447</v>
+        <v>1185</v>
       </c>
       <c r="C31">
-        <v>1360.04582561146</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D31">
-        <v>3497.86269313026</v>
+        <v>7492.24125491284</v>
       </c>
       <c r="E31">
-        <v>0.313860522852846</v>
+        <v>0.426592186249258</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>4410083.44662019</v>
+        <v>4355763.28015706</v>
       </c>
       <c r="B32">
-        <v>2097</v>
+        <v>2367</v>
       </c>
       <c r="C32">
-        <v>1124.20017211752</v>
+        <v>919.254061093366</v>
       </c>
       <c r="D32">
-        <v>10974.915026833</v>
+        <v>12506.0475554062</v>
       </c>
       <c r="E32">
-        <v>1.68794670924006</v>
+        <v>1.11944627393133</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>4411696.12835909</v>
+        <v>4396171.51981923</v>
       </c>
       <c r="B33">
-        <v>2193</v>
+        <v>76</v>
       </c>
       <c r="C33">
-        <v>688.31123645867</v>
+        <v>1059.92178896587</v>
       </c>
       <c r="D33">
-        <v>9433.46847021591</v>
+        <v>144.850082077046</v>
       </c>
       <c r="E33">
-        <v>0.558888521445397</v>
+        <v>0.0445597759946305</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>4430603.2804296</v>
+        <v>4399750.47367059</v>
       </c>
       <c r="B34">
-        <v>962</v>
+        <v>187</v>
       </c>
       <c r="C34">
-        <v>1296.11492728062</v>
+        <v>1059.92178896587</v>
       </c>
       <c r="D34">
-        <v>3351.67449329405</v>
+        <v>4027.11482883467</v>
       </c>
       <c r="E34">
-        <v>0.45461519195984</v>
+        <v>0.197873870477752</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>4478558.1737678</v>
+        <v>4402383.15149808</v>
       </c>
       <c r="B35">
-        <v>2210</v>
+        <v>472</v>
       </c>
       <c r="C35">
-        <v>385.082774782657</v>
+        <v>1059.92178896587</v>
       </c>
       <c r="D35">
-        <v>6374.05102123468</v>
+        <v>32742.705613396</v>
       </c>
       <c r="E35">
-        <v>0.301360603213168</v>
+        <v>1.53045923374762</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>4535739.9117326</v>
+        <v>4402403.31990608</v>
       </c>
       <c r="B36">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C36">
-        <v>1210.92925449964</v>
+        <v>1059.92178896587</v>
       </c>
       <c r="D36">
-        <v>3037.37818059394</v>
+        <v>49329.7678610463</v>
       </c>
       <c r="E36">
-        <v>0.184171432523144</v>
+        <v>1.94805360922766</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>4540979.23169823</v>
+        <v>4402423.32207524</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>1795</v>
       </c>
       <c r="C37">
-        <v>1210.92925449964</v>
+        <v>654.892258996827</v>
       </c>
       <c r="D37">
-        <v>2019.84982714215</v>
+        <v>7492.24125491284</v>
       </c>
       <c r="E37">
-        <v>0.134217823681799</v>
+        <v>0.384444010980056</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>4541187.59258388</v>
+        <v>4419808.54431656</v>
       </c>
       <c r="B38">
-        <v>481</v>
+        <v>563</v>
       </c>
       <c r="C38">
-        <v>1210.92925449964</v>
+        <v>1059.92178896587</v>
       </c>
       <c r="D38">
-        <v>154.178699956254</v>
+        <v>29469.0999955439</v>
       </c>
       <c r="E38">
-        <v>0.0825393669960685</v>
+        <v>1.46238589262288</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>4559779.60437881</v>
+        <v>4429707.31388593</v>
       </c>
       <c r="B39">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="C39">
-        <v>1210.92925449964</v>
+        <v>1059.92178896587</v>
       </c>
       <c r="D39">
-        <v>4945.86750494369</v>
+        <v>14638.3198062041</v>
       </c>
       <c r="E39">
-        <v>0.31592420881528</v>
+        <v>0.574126098860063</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>4590369.80614146</v>
+        <v>4429992.34772388</v>
       </c>
       <c r="B40">
-        <v>1940</v>
+        <v>76</v>
       </c>
       <c r="C40">
-        <v>1197.17423502514</v>
+        <v>1059.92178896587</v>
       </c>
       <c r="D40">
-        <v>10092.3225895959</v>
+        <v>12073.015264593</v>
       </c>
       <c r="E40">
-        <v>2.25862070548221</v>
+        <v>0.480373734378998</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>4605809.08665719</v>
+        <v>4430182.34783271</v>
       </c>
       <c r="B41">
-        <v>396</v>
+        <v>76</v>
       </c>
       <c r="C41">
-        <v>1228.63934093385</v>
+        <v>1059.92178896587</v>
       </c>
       <c r="D41">
-        <v>7240.69728567045</v>
+        <v>10363.0142851701</v>
       </c>
       <c r="E41">
-        <v>0.464552206038055</v>
+        <v>0.41788674800364</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>4684358.04644483</v>
+        <v>4430650.83166514</v>
       </c>
       <c r="B42">
-        <v>1489</v>
+        <v>76</v>
       </c>
       <c r="C42">
-        <v>1210.92925449964</v>
+        <v>1059.92178896587</v>
       </c>
       <c r="D42">
-        <v>2019.84982714215</v>
+        <v>5156.84011618024</v>
       </c>
       <c r="E42">
-        <v>0.649670429151499</v>
+        <v>0.227709479905703</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>4743952.71220903</v>
+        <v>4430865.32138658</v>
       </c>
       <c r="B43">
-        <v>930</v>
+        <v>76</v>
       </c>
       <c r="C43">
-        <v>1177.26786205411</v>
+        <v>1059.92178896587</v>
       </c>
       <c r="D43">
-        <v>12525.8782317954</v>
+        <v>6122.0438626754</v>
       </c>
       <c r="E43">
-        <v>1.08246425669948</v>
+        <v>0.262981168719897</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>4754653.59631818</v>
+        <v>4431179.79818744</v>
       </c>
       <c r="B44">
-        <v>1735</v>
+        <v>76</v>
       </c>
       <c r="C44">
-        <v>1299.39801799923</v>
+        <v>1062.42949211362</v>
       </c>
       <c r="D44">
-        <v>7980.87147571036</v>
+        <v>8112.36006238842</v>
       </c>
       <c r="E44">
-        <v>3.41051964850625</v>
+        <v>0.336684859648634</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>4756279.03065694</v>
+        <v>4487635.41502362</v>
       </c>
       <c r="B45">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C45">
-        <v>1741.24863226884</v>
+        <v>1170.86029027366</v>
       </c>
       <c r="D45">
-        <v>6050.06948800562</v>
+        <v>4072.41982372247</v>
       </c>
       <c r="E45">
-        <v>0.567899383272255</v>
+        <v>0.216861295244407</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>4760077.70481694</v>
+        <v>4563543.2491971</v>
       </c>
       <c r="B46">
-        <v>74</v>
+        <v>1185</v>
       </c>
       <c r="C46">
-        <v>1347.1467226821</v>
+        <v>1419.44464433334</v>
       </c>
       <c r="D46">
-        <v>6050.06948800562</v>
+        <v>7492.24125491284</v>
       </c>
       <c r="E46">
-        <v>0.383737096126864</v>
+        <v>1.27470080136736</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>4781986.0992183</v>
+        <v>4585262.14318462</v>
       </c>
       <c r="B47">
-        <v>2193</v>
+        <v>1330</v>
       </c>
       <c r="C47">
-        <v>688.31123645867</v>
+        <v>1383.03326225539</v>
       </c>
       <c r="D47">
-        <v>2230.40034015676</v>
+        <v>7725.51355470638</v>
       </c>
       <c r="E47">
-        <v>0.290621261150894</v>
+        <v>1.52373080528843</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>4799240.59553133</v>
+        <v>4621188.84329052</v>
       </c>
       <c r="B48">
-        <v>1940</v>
+        <v>1698</v>
       </c>
       <c r="C48">
-        <v>702.3630828287</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D48">
-        <v>10974.915026833</v>
+        <v>11468.2569654453</v>
       </c>
       <c r="E48">
-        <v>0.688961271422206</v>
+        <v>0.878904637589424</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>4857738.02545234</v>
+        <v>4679247.04777807</v>
       </c>
       <c r="B49">
-        <v>74</v>
+        <v>1480</v>
       </c>
       <c r="C49">
-        <v>1647.35222069451</v>
+        <v>464.75237743133</v>
       </c>
       <c r="D49">
-        <v>3921.25937717333</v>
+        <v>1811.52218048035</v>
       </c>
       <c r="E49">
-        <v>0.423338667444872</v>
+        <v>0.0978179459203013</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>4898137.18012948</v>
+        <v>4681189.28274474</v>
       </c>
       <c r="B50">
-        <v>1951</v>
+        <v>1185</v>
       </c>
       <c r="C50">
-        <v>1104.42959378647</v>
+        <v>1020.40855313595</v>
       </c>
       <c r="D50">
-        <v>15227.1124178217</v>
+        <v>23285.5395563521</v>
       </c>
       <c r="E50">
-        <v>2.66438839604908</v>
+        <v>1.76702030961274</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>4916791.39568914</v>
+        <v>4705196.6795452</v>
       </c>
       <c r="B51">
-        <v>3161</v>
+        <v>76</v>
       </c>
       <c r="C51">
-        <v>688.31123645867</v>
+        <v>1400.31134328679</v>
       </c>
       <c r="D51">
-        <v>13270.595809061</v>
+        <v>583.526320006844</v>
       </c>
       <c r="E51">
-        <v>1.5359077016401</v>
+        <v>0.111290027227179</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>5459487.11076309</v>
+        <v>4827941.01567751</v>
       </c>
       <c r="B52">
-        <v>74</v>
+        <v>1601</v>
       </c>
       <c r="C52">
-        <v>1647.35222069451</v>
+        <v>1022.55334345391</v>
       </c>
       <c r="D52">
-        <v>16064.0985139382</v>
+        <v>13146.5045121079</v>
       </c>
       <c r="E52">
-        <v>1.63079160881662</v>
+        <v>1.46013344308167</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>5460067.64784321</v>
+        <v>4842319.90822489</v>
       </c>
       <c r="B53">
-        <v>74</v>
+        <v>1371</v>
       </c>
       <c r="C53">
-        <v>1647.35222069451</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D53">
-        <v>10838.5429450162</v>
+        <v>21479.9509052628</v>
       </c>
       <c r="E53">
-        <v>1.1496839777212</v>
+        <v>1.49201760451435</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>5523431.62081819</v>
+        <v>4856249.11343424</v>
       </c>
       <c r="B54">
-        <v>1735</v>
+        <v>76</v>
       </c>
       <c r="C54">
-        <v>1194.63232311012</v>
+        <v>1420.38089762217</v>
       </c>
       <c r="D54">
-        <v>17974.5459898293</v>
+        <v>144.850082077046</v>
       </c>
       <c r="E54">
-        <v>10.9906893214372</v>
+        <v>0.0916713870144583</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>5591136.72136063</v>
+        <v>5047533.31552236</v>
       </c>
       <c r="B55">
-        <v>129</v>
+        <v>1593</v>
       </c>
       <c r="C55">
-        <v>688.31123645867</v>
+        <v>887.678195705465</v>
       </c>
       <c r="D55">
-        <v>48419.0616969494</v>
+        <v>17972.0248722281</v>
       </c>
       <c r="E55">
-        <v>1.32421647616047</v>
+        <v>1.56449953342368</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>5636589.41540645</v>
+        <v>5050683.00139636</v>
       </c>
       <c r="B56">
-        <v>1735</v>
+        <v>2098</v>
       </c>
       <c r="C56">
-        <v>1579.26748838835</v>
+        <v>1230.67437703912</v>
       </c>
       <c r="D56">
-        <v>4383.19919641279</v>
+        <v>3787.95076128901</v>
       </c>
       <c r="E56">
-        <v>-0.927033277876202</v>
+        <v>-3.26169264889692</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>5813303.86444934</v>
+        <v>5123424.69653391</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>1509</v>
       </c>
       <c r="C57">
-        <v>688.31123645867</v>
+        <v>617.184673736136</v>
       </c>
       <c r="D57">
-        <v>36685.1619638617</v>
+        <v>9501.94560063691</v>
       </c>
       <c r="E57">
-        <v>0.968333786410188</v>
+        <v>0.4978031632626</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>5832722.16020726</v>
+        <v>5186383.44961017</v>
       </c>
       <c r="B58">
-        <v>2193</v>
+        <v>187</v>
       </c>
       <c r="C58">
-        <v>688.31123645867</v>
+        <v>756.588748702726</v>
       </c>
       <c r="D58">
-        <v>25965.9396569562</v>
+        <v>39579.2737152571</v>
       </c>
       <c r="E58">
-        <v>2.71425647506446</v>
+        <v>1.17276718386234</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>5925308.51685113</v>
+        <v>5186521.89816752</v>
       </c>
       <c r="B59">
-        <v>2106</v>
+        <v>76</v>
       </c>
       <c r="C59">
-        <v>1152.66483027074</v>
+        <v>808.117094388664</v>
       </c>
       <c r="D59">
-        <v>26.3880657270784</v>
+        <v>2748.89573281135</v>
       </c>
       <c r="E59">
-        <v>-0.866305110726422</v>
+        <v>0.10370172236113</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>5926965.91023094</v>
+        <v>5298166.89589275</v>
       </c>
       <c r="B60">
-        <v>4804</v>
+        <v>1371</v>
       </c>
       <c r="C60">
-        <v>688.31123645867</v>
+        <v>1392.51925224192</v>
       </c>
       <c r="D60">
-        <v>9433.46847021591</v>
+        <v>14384.0470157332</v>
       </c>
       <c r="E60">
-        <v>-0.929822141318822</v>
+        <v>5.22241952377792</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>6179083.68838874</v>
+        <v>5344343.61586925</v>
       </c>
       <c r="B61">
-        <v>2193</v>
+        <v>100</v>
       </c>
       <c r="C61">
-        <v>196.294808264245</v>
+        <v>1761.9304137062</v>
       </c>
       <c r="D61">
-        <v>71688.8314813816</v>
+        <v>1990.63938430488</v>
       </c>
       <c r="E61">
-        <v>3.03980383624775</v>
+        <v>0.46530577032213</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>6180623.17725907</v>
+        <v>5464525.91835947</v>
       </c>
       <c r="B62">
-        <v>2494</v>
+        <v>194</v>
       </c>
       <c r="C62">
-        <v>160.835725656541</v>
+        <v>687.445305020189</v>
       </c>
       <c r="D62">
-        <v>12188.1946736705</v>
+        <v>7725.51355470638</v>
       </c>
       <c r="E62">
-        <v>0.550667315638108</v>
+        <v>0.232947699742726</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>6251639.69258128</v>
+        <v>5516509.51571414</v>
       </c>
       <c r="B63">
-        <v>260</v>
+        <v>1596</v>
       </c>
       <c r="C63">
-        <v>470.334033426773</v>
+        <v>1747.37543118101</v>
       </c>
       <c r="D63">
-        <v>16064.0985139382</v>
+        <v>11344.8074227475</v>
       </c>
       <c r="E63">
-        <v>0.399420071196103</v>
+        <v>-3.06066431566642</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>6252148.38279637</v>
+        <v>5544749.31269568</v>
       </c>
       <c r="B64">
-        <v>260</v>
+        <v>1330</v>
       </c>
       <c r="C64">
-        <v>470.334033426773</v>
+        <v>1383.03326225539</v>
       </c>
       <c r="D64">
-        <v>23408.4723845866</v>
+        <v>16276.1650991837</v>
       </c>
       <c r="E64">
-        <v>0.576294545883807</v>
+        <v>9.96362021549916</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>6252500.48644199</v>
+        <v>5563329.4667058</v>
       </c>
       <c r="B65">
-        <v>260</v>
+        <v>1593</v>
       </c>
       <c r="C65">
-        <v>470.334033426773</v>
+        <v>310.154285131011</v>
       </c>
       <c r="D65">
-        <v>26577.405195235</v>
+        <v>7492.24125491284</v>
       </c>
       <c r="E65">
-        <v>0.652626182597358</v>
+        <v>0.285875240145995</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>6252884.7358384</v>
+        <v>5565624.92427213</v>
       </c>
       <c r="B66">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="C66">
-        <v>470.334033426773</v>
+        <v>1897.8015614372</v>
       </c>
       <c r="D66">
-        <v>30035.6497628407</v>
+        <v>4364.21909728853</v>
       </c>
       <c r="E66">
-        <v>0.735936427329009</v>
+        <v>1.5130895835982</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>6253413.01932385</v>
+        <v>5758006.86820518</v>
       </c>
       <c r="B67">
-        <v>260</v>
+        <v>2460</v>
       </c>
       <c r="C67">
-        <v>470.334033426773</v>
+        <v>1383.03326225539</v>
       </c>
       <c r="D67">
-        <v>52.0789153674741</v>
+        <v>5414.34255839407</v>
       </c>
       <c r="E67">
-        <v>0.0139628235535657</v>
+        <v>-0.757334786685979</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>6254315.18772965</v>
+        <v>5772023.2664924</v>
       </c>
       <c r="B68">
-        <v>260</v>
+        <v>1429</v>
       </c>
       <c r="C68">
-        <v>470.334033426773</v>
+        <v>1428.57142857143</v>
       </c>
       <c r="D68">
-        <v>42909.7167841841</v>
+        <v>26530.7578146081</v>
       </c>
       <c r="E68">
-        <v>1.04616698940942</v>
+        <v>-35.9001837908512</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>6255413.42975236</v>
+        <v>5778599.21403681</v>
       </c>
       <c r="B69">
-        <v>260</v>
+        <v>1429</v>
       </c>
       <c r="C69">
-        <v>470.334033426773</v>
+        <v>1428.57142857143</v>
       </c>
       <c r="D69">
-        <v>52793.8949885415</v>
+        <v>85714.2857142857</v>
       </c>
       <c r="E69">
-        <v>1.28444563649357</v>
+        <v>-105.203051241113</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>6371086.15577809</v>
+        <v>5907727.54343101</v>
       </c>
       <c r="B70">
-        <v>144</v>
+        <v>1857</v>
       </c>
       <c r="C70">
-        <v>496.354678859733</v>
+        <v>188.710726000239</v>
       </c>
       <c r="D70">
-        <v>14136.9791227768</v>
+        <v>80877.8381101355</v>
       </c>
       <c r="E70">
-        <v>0.346416089492786</v>
+        <v>2.86594157291208</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>6389857.56473235</v>
+        <v>5930991.98807065</v>
       </c>
       <c r="B71">
-        <v>1201</v>
+        <v>848</v>
       </c>
       <c r="C71">
-        <v>16.2125821292479</v>
+        <v>276.385920223578</v>
       </c>
       <c r="D71">
-        <v>57337.921033653</v>
+        <v>11113.1527958468</v>
       </c>
       <c r="E71">
-        <v>1.37451443710049</v>
+        <v>0.294799219799247</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>6455180.16408434</v>
+        <v>5933896.41416396</v>
       </c>
       <c r="B72">
-        <v>3544</v>
+        <v>848</v>
       </c>
       <c r="C72">
-        <v>688.31123645867</v>
+        <v>276.385920223578</v>
       </c>
       <c r="D72">
-        <v>21823.4508844109</v>
+        <v>50376.9658980047</v>
       </c>
       <c r="E72">
-        <v>8.17114306770168</v>
+        <v>1.2954927284771</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>6461337.53887639</v>
+        <v>5938618.3693962</v>
       </c>
       <c r="B73">
-        <v>1074</v>
+        <v>848</v>
       </c>
       <c r="C73">
-        <v>45.1520426685627</v>
+        <v>276.385920223578</v>
       </c>
       <c r="D73">
-        <v>74460.2453459874</v>
+        <v>92874.5629880678</v>
       </c>
       <c r="E73">
-        <v>1.74786502547381</v>
+        <v>2.38027109774279</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>6484051.68385293</v>
+        <v>6190446.83733387</v>
       </c>
       <c r="B74">
-        <v>103</v>
+        <v>848</v>
       </c>
       <c r="C74">
-        <v>2000.30802075851</v>
+        <v>211.643385611146</v>
       </c>
       <c r="D74">
-        <v>24499.8824586789</v>
+        <v>69654.0386078533</v>
       </c>
       <c r="E74">
-        <v>47.9307448106702</v>
+        <v>1.70645731302293</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>6484355.46086644</v>
+        <v>6225259.59785632</v>
       </c>
       <c r="B75">
-        <v>74</v>
+        <v>848</v>
       </c>
       <c r="C75">
-        <v>502.463177438949</v>
+        <v>202.383213359027</v>
       </c>
       <c r="D75">
-        <v>3921.25937717333</v>
+        <v>36016.7939122223</v>
       </c>
       <c r="E75">
-        <v>0.103050966895429</v>
+        <v>0.880735746058059</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>6518035.45007371</v>
+        <v>6285841.32791764</v>
       </c>
       <c r="B76">
-        <v>3991</v>
+        <v>194</v>
       </c>
       <c r="C76">
-        <v>322.516869298527</v>
+        <v>493.397830410191</v>
       </c>
       <c r="D76">
-        <v>3911.48448422879</v>
+        <v>30754.4317825477</v>
       </c>
       <c r="E76">
-        <v>13.4997436669216</v>
+        <v>0.74951368031002</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>6553401.62032838</v>
+        <v>6328044.5209312</v>
       </c>
       <c r="B77">
-        <v>1940</v>
+        <v>1185</v>
       </c>
       <c r="C77">
-        <v>1819.36259762494</v>
+        <v>1984.11704244766</v>
       </c>
       <c r="D77">
-        <v>10974.915026833</v>
+        <v>6029.82484098493</v>
       </c>
       <c r="E77">
-        <v>-0.944349518901885</v>
+        <v>-0.79013492125824</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>6698041.83101096</v>
+        <v>6353830.77360606</v>
       </c>
       <c r="B78">
-        <v>74</v>
+        <v>1211</v>
       </c>
       <c r="C78">
-        <v>2383.85759277314</v>
+        <v>22.3406250290276</v>
       </c>
       <c r="D78">
-        <v>8144.79205499261</v>
+        <v>12764.0507670268</v>
       </c>
       <c r="E78">
-        <v>-1.79111076087137</v>
+        <v>0.313456715690685</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>6903649.03152088</v>
+        <v>6616335.49727413</v>
       </c>
       <c r="B79">
-        <v>670</v>
+        <v>2744</v>
       </c>
       <c r="C79">
-        <v>125.114934828351</v>
+        <v>276.385920223578</v>
       </c>
       <c r="D79">
-        <v>2743.90817273792</v>
+        <v>349.446223005227</v>
       </c>
       <c r="E79">
-        <v>0.0657881156593237</v>
+        <v>0.0855712097817007</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>7110735.93822835</v>
+        <v>6701690.28289095</v>
       </c>
       <c r="B80">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="C80">
-        <v>2436.52990458544</v>
+        <v>333.321466140762</v>
       </c>
       <c r="D80">
-        <v>4937.76001340747</v>
+        <v>58908.7229157766</v>
       </c>
       <c r="E80">
-        <v>-0.788174574977582</v>
+        <v>1.33381145362988</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>7212484.76985692</v>
+        <v>6969819.7683523</v>
       </c>
       <c r="B81">
-        <v>116</v>
+        <v>1185</v>
       </c>
       <c r="C81">
-        <v>310.66735125792</v>
+        <v>2057.69451022518</v>
       </c>
       <c r="D81">
-        <v>15711.5718559884</v>
+        <v>1985.40559940985</v>
       </c>
       <c r="E81">
-        <v>0.33485442828289</v>
+        <v>-0.294983759978639</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>7414441.11022866</v>
+        <v>7033622.10134314</v>
       </c>
       <c r="B82">
-        <v>260</v>
+        <v>848</v>
       </c>
       <c r="C82">
-        <v>196.063707221348</v>
+        <v>11.140808504107</v>
       </c>
       <c r="D82">
-        <v>7758.73096641611</v>
+        <v>25290.116648554</v>
       </c>
       <c r="E82">
-        <v>0.162667138286181</v>
+        <v>0.545513529740776</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>7480130.01197346</v>
+        <v>7250429.94655382</v>
       </c>
       <c r="B83">
-        <v>260</v>
+        <v>693</v>
       </c>
       <c r="C83">
-        <v>180.590622613684</v>
+        <v>32.3838284031814</v>
       </c>
       <c r="D83">
-        <v>34960.4205505954</v>
+        <v>4352.25585142569</v>
       </c>
       <c r="E83">
-        <v>0.70853250143466</v>
+        <v>0.0942066423737323</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>7716587.04772686</v>
+        <v>7375021.47133481</v>
       </c>
       <c r="B84">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="C84">
-        <v>24.8184490442125</v>
+        <v>83.6990977593632</v>
       </c>
       <c r="D84">
-        <v>89873.9790747877</v>
+        <v>11113.1527958468</v>
       </c>
       <c r="E84">
-        <v>1.75897712389508</v>
+        <v>0.230840140768277</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>7735881.33270402</v>
+        <v>7561325.43268305</v>
       </c>
       <c r="B85">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="C85">
-        <v>119.756509327385</v>
+        <v>276.385920223578</v>
       </c>
       <c r="D85">
-        <v>18720.294663214</v>
+        <v>19623.791406405</v>
       </c>
       <c r="E85">
-        <v>0.367648194357467</v>
+        <v>0.396156248795336</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>7898402.02579682</v>
+        <v>8375517.1272429</v>
       </c>
       <c r="B86">
-        <v>2857</v>
+        <v>187</v>
       </c>
       <c r="C86">
-        <v>1428.57142857143</v>
+        <v>2.80141864429834</v>
       </c>
       <c r="D86">
-        <v>42857.1428571429</v>
+        <v>19730.6541487943</v>
       </c>
       <c r="E86">
-        <v>-2.29598861103072</v>
+        <v>0.355340464954804</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>8112188.08579235</v>
+        <v>8548047.0829247</v>
       </c>
       <c r="B87">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C87">
-        <v>2569.61012146146</v>
+        <v>14.3178321799519</v>
       </c>
       <c r="D87">
-        <v>621.056372620566</v>
+        <v>144.850082077046</v>
       </c>
       <c r="E87">
-        <v>-0.214180445219542</v>
+        <v>0.00309959881674946</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>10364266.1996926</v>
+        <v>10600774.1362006</v>
       </c>
       <c r="B88">
         <v>1429</v>
@@ -1876,112 +1876,112 @@
         <v>2857.14285714286</v>
       </c>
       <c r="D88">
-        <v>28571.4285714286</v>
+        <v>42857.1428571429</v>
       </c>
       <c r="E88">
-        <v>-0.805339075015559</v>
+        <v>-1.12297102342341</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>12019546.9208283</v>
+        <v>11625845.8157368</v>
       </c>
       <c r="B89">
-        <v>5707</v>
+        <v>76</v>
       </c>
       <c r="C89">
-        <v>470.334033426773</v>
+        <v>3511.03380557672</v>
       </c>
       <c r="D89">
-        <v>52793.8949885415</v>
+        <v>144.850082077046</v>
       </c>
       <c r="E89">
-        <v>-1.81384887483785</v>
+        <v>-0.0883484103113231</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>13030788.5263131</v>
+        <v>11706977.467638</v>
       </c>
       <c r="B90">
-        <v>4286</v>
+        <v>7143</v>
       </c>
       <c r="C90">
-        <v>2857.14285714286</v>
+        <v>1428.57142857143</v>
       </c>
       <c r="D90">
-        <v>28571.4285714286</v>
+        <v>14285.7142857143</v>
       </c>
       <c r="E90">
-        <v>-0.497989885749606</v>
+        <v>-0.274088315524977</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>15997295.8642399</v>
+        <v>16068694.1011575</v>
       </c>
       <c r="B91">
-        <v>7143</v>
+        <v>2857</v>
       </c>
       <c r="C91">
-        <v>1428.57142857143</v>
+        <v>4285.71428571429</v>
       </c>
       <c r="D91">
-        <v>100000</v>
+        <v>28571.4285714286</v>
       </c>
       <c r="E91">
-        <v>-1.35674654164725</v>
+        <v>-0.38096696124128</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>16082079.7548086</v>
+        <v>20980668.1797636</v>
       </c>
       <c r="B92">
-        <v>1429</v>
+        <v>8571</v>
       </c>
       <c r="C92">
-        <v>4285.71428571429</v>
+        <v>7142.85714285714</v>
       </c>
       <c r="D92">
-        <v>100000</v>
+        <v>85714.2857142857</v>
       </c>
       <c r="E92">
-        <v>-1.28782547987361</v>
+        <v>-0.77603438027224</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>23392513.0505901</v>
+        <v>21059325.0307752</v>
       </c>
       <c r="B93">
-        <v>2857</v>
+        <v>7143</v>
       </c>
       <c r="C93">
-        <v>7142.85714285714</v>
+        <v>2857.14285714286</v>
       </c>
       <c r="D93">
-        <v>71428.5714285714</v>
+        <v>100000</v>
       </c>
       <c r="E93">
-        <v>-0.580372579150286</v>
+        <v>-0.899452611618965</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>23666916.2938227</v>
+        <v>23392513.0505901</v>
       </c>
       <c r="B94">
-        <v>5714</v>
+        <v>2857</v>
       </c>
       <c r="C94">
-        <v>5714.28571428571</v>
+        <v>7142.85714285714</v>
       </c>
       <c r="D94">
-        <v>57142.8571428571</v>
+        <v>71428.5714285714</v>
       </c>
       <c r="E94">
-        <v>-0.439961192023306</v>
+        <v>-0.580372579150286</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2003,75 +2003,75 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>26486791.3739845</v>
+        <v>23666916.2938227</v>
       </c>
       <c r="B96">
-        <v>8571</v>
+        <v>5714</v>
       </c>
       <c r="C96">
-        <v>4285.71428571429</v>
+        <v>5714.28571428571</v>
       </c>
       <c r="D96">
-        <v>42857.1428571429</v>
+        <v>57142.8571428571</v>
       </c>
       <c r="E96">
-        <v>-0.291197158597544</v>
+        <v>-0.439961192023306</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>35769032.2455191</v>
+        <v>26486791.3739845</v>
       </c>
       <c r="B97">
-        <v>7143</v>
+        <v>8571</v>
       </c>
       <c r="C97">
-        <v>8571.42857142857</v>
+        <v>4285.71428571429</v>
       </c>
       <c r="D97">
-        <v>85714.2857142857</v>
+        <v>42857.1428571429</v>
       </c>
       <c r="E97">
-        <v>-0.419167231398842</v>
+        <v>-0.291197158597544</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>40985057.564004</v>
+        <v>30426872.7829687</v>
       </c>
       <c r="B98">
+        <v>4286</v>
+      </c>
+      <c r="C98">
         <v>10000</v>
       </c>
-      <c r="C98">
-        <v>7142.85714285714</v>
-      </c>
       <c r="D98">
-        <v>14285.7142857143</v>
+        <v>100000</v>
       </c>
       <c r="E98">
-        <v>-0.0880603517507627</v>
+        <v>-0.596787324623685</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>42587920.866195</v>
+        <v>36594075.3097996</v>
       </c>
       <c r="B99">
         <v>4286</v>
       </c>
       <c r="C99">
-        <v>10000</v>
+        <v>8571.42857142857</v>
       </c>
       <c r="D99">
         <v>14285.7142857143</v>
       </c>
       <c r="E99">
-        <v>-0.0920120931202576</v>
+        <v>-0.101871991872319</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>45119947.3496604</v>
+        <v>46547198.3150749</v>
       </c>
       <c r="B100">
         <v>10000</v>
@@ -2080,27 +2080,27 @@
         <v>8571.42857142857</v>
       </c>
       <c r="D100">
-        <v>85714.2857142857</v>
+        <v>71428.5714285714</v>
       </c>
       <c r="E100">
-        <v>-0.329410427809074</v>
+        <v>-0.271340589291061</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>50398515.534263</v>
+        <v>52681085.6381219</v>
       </c>
       <c r="B101">
-        <v>8571</v>
+        <v>10000</v>
       </c>
       <c r="C101">
         <v>10000</v>
       </c>
       <c r="D101">
-        <v>71428.5714285714</v>
+        <v>28571.4285714286</v>
       </c>
       <c r="E101">
-        <v>-0.250583507781811</v>
+        <v>-0.117533417230242</v>
       </c>
     </row>
   </sheetData>

--- a/Engine/results.xlsx
+++ b/Engine/results.xlsx
@@ -405,1523 +405,1523 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>3810756.78093064</v>
+        <v>4110954.86224926</v>
       </c>
       <c r="B2">
-        <v>1480</v>
+        <v>2888</v>
       </c>
       <c r="C2">
-        <v>792.701735989073</v>
+        <v>674.823877519005</v>
       </c>
       <c r="D2">
-        <v>4742.9665155198</v>
+        <v>8051.78188275135</v>
       </c>
       <c r="E2">
-        <v>0.285402434006795</v>
+        <v>0.897011196648189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>3847352.9440034</v>
+        <v>4123396.76341082</v>
       </c>
       <c r="B3">
-        <v>1480</v>
+        <v>2894</v>
       </c>
       <c r="C3">
-        <v>770.985629210649</v>
+        <v>674.823877519005</v>
       </c>
       <c r="D3">
-        <v>4941.21253603673</v>
+        <v>7842.24562486707</v>
       </c>
       <c r="E3">
-        <v>0.282970421877938</v>
+        <v>0.904076753785699</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>3851140.48081272</v>
+        <v>4142553.83019822</v>
       </c>
       <c r="B4">
-        <v>1480</v>
+        <v>2888</v>
       </c>
       <c r="C4">
-        <v>849.722587024833</v>
+        <v>606.683782207199</v>
       </c>
       <c r="D4">
-        <v>4941.21253603673</v>
+        <v>8622.15365956532</v>
       </c>
       <c r="E4">
-        <v>0.330170422730092</v>
+        <v>0.772607919248676</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3858697.99543544</v>
+        <v>4146397.65588329</v>
       </c>
       <c r="B5">
-        <v>1617</v>
+        <v>2981</v>
       </c>
       <c r="C5">
-        <v>739.507967920055</v>
+        <v>674.823877519005</v>
       </c>
       <c r="D5">
-        <v>4941.21253603673</v>
+        <v>8051.78188275135</v>
       </c>
       <c r="E5">
-        <v>0.295112411841623</v>
+        <v>1.00197768798684</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>3868704.60901371</v>
+        <v>4154681.16270219</v>
       </c>
       <c r="B6">
-        <v>1608</v>
+        <v>2888</v>
       </c>
       <c r="C6">
-        <v>752.33164005286</v>
+        <v>627.686692429166</v>
       </c>
       <c r="D6">
-        <v>4588.43844529101</v>
+        <v>7975.84177056508</v>
       </c>
       <c r="E6">
-        <v>0.287278642971784</v>
+        <v>0.80427876489639</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>3875632.00742305</v>
+        <v>4176620.82092099</v>
       </c>
       <c r="B7">
-        <v>1480</v>
+        <v>2873</v>
       </c>
       <c r="C7">
-        <v>887.678195705465</v>
+        <v>571.91932337831</v>
       </c>
       <c r="D7">
-        <v>4941.21253603673</v>
+        <v>8734.87906408344</v>
       </c>
       <c r="E7">
-        <v>0.359357499346237</v>
+        <v>0.701382144029363</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>3877679.69610705</v>
+        <v>4180581.52881229</v>
       </c>
       <c r="B8">
-        <v>1480</v>
+        <v>2873</v>
       </c>
       <c r="C8">
-        <v>793.108304608571</v>
+        <v>639.670597771826</v>
       </c>
       <c r="D8">
-        <v>3868.66391509577</v>
+        <v>9743.01363669133</v>
       </c>
       <c r="E8">
-        <v>0.254751267683134</v>
+        <v>0.834582719602757</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>3880692.95595834</v>
+        <v>4213186.34982211</v>
       </c>
       <c r="B9">
-        <v>1340</v>
+        <v>2971</v>
       </c>
       <c r="C9">
-        <v>887.678195705465</v>
+        <v>571.91932337831</v>
       </c>
       <c r="D9">
-        <v>3724.88061318363</v>
+        <v>9625.96539612402</v>
       </c>
       <c r="E9">
-        <v>0.270474055726732</v>
+        <v>0.779521110382623</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>3883061.62912319</v>
+        <v>4218176.45323407</v>
       </c>
       <c r="B10">
-        <v>1480</v>
+        <v>2888</v>
       </c>
       <c r="C10">
-        <v>887.678195705465</v>
+        <v>674.823877519005</v>
       </c>
       <c r="D10">
-        <v>5099.4102571827</v>
+        <v>7019.22998449514</v>
       </c>
       <c r="E10">
-        <v>0.366212709371976</v>
+        <v>0.908157177118328</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>3899346.5600161</v>
+        <v>4225403.47019635</v>
       </c>
       <c r="B11">
-        <v>1480</v>
+        <v>2971</v>
       </c>
       <c r="C11">
-        <v>887.678195705465</v>
+        <v>571.91932337831</v>
       </c>
       <c r="D11">
-        <v>5301.68396185874</v>
+        <v>10068.8735503158</v>
       </c>
       <c r="E11">
-        <v>0.373353473844784</v>
+        <v>0.78241665718034</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>3901321.20645691</v>
+        <v>4229591.5314428</v>
       </c>
       <c r="B12">
-        <v>1480</v>
+        <v>2856</v>
       </c>
       <c r="C12">
-        <v>857.209795921401</v>
+        <v>712.877911029973</v>
       </c>
       <c r="D12">
-        <v>3294.94655338834</v>
+        <v>8350.6339821697</v>
       </c>
       <c r="E12">
-        <v>0.258073032726675</v>
+        <v>1.04742238446377</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>3901578.60885041</v>
+        <v>4231159.33438104</v>
       </c>
       <c r="B13">
-        <v>1348</v>
+        <v>3040</v>
       </c>
       <c r="C13">
-        <v>887.678195705465</v>
+        <v>553.654169070104</v>
       </c>
       <c r="D13">
-        <v>3157.23657818223</v>
+        <v>8734.87906408344</v>
       </c>
       <c r="E13">
-        <v>0.242792022341999</v>
+        <v>0.789461349549274</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>3907017.74415671</v>
+        <v>4240294.9821661</v>
       </c>
       <c r="B14">
-        <v>1586</v>
+        <v>3112</v>
       </c>
       <c r="C14">
-        <v>880.237039508552</v>
+        <v>571.91932337831</v>
       </c>
       <c r="D14">
-        <v>5093.20344861765</v>
+        <v>9847.72679625696</v>
       </c>
       <c r="E14">
-        <v>0.392446257079999</v>
+        <v>0.880628966635406</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>3921697.88414204</v>
+        <v>4244856.40611595</v>
       </c>
       <c r="B15">
-        <v>1480</v>
+        <v>2873</v>
       </c>
       <c r="C15">
-        <v>736.967708253454</v>
+        <v>571.91932337831</v>
       </c>
       <c r="D15">
-        <v>4242.00555134723</v>
+        <v>7449.00079265366</v>
       </c>
       <c r="E15">
-        <v>0.246854261138953</v>
+        <v>0.696896344685754</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>3944412.28722</v>
+        <v>4326045.23874566</v>
       </c>
       <c r="B16">
-        <v>1435</v>
+        <v>3367</v>
       </c>
       <c r="C16">
-        <v>887.678195705465</v>
+        <v>571.91932337831</v>
       </c>
       <c r="D16">
-        <v>5757.65651580115</v>
+        <v>9392.679911349</v>
       </c>
       <c r="E16">
-        <v>0.379709182012551</v>
+        <v>1.19542038366041</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>3945821.66126106</v>
+        <v>4329739.01448522</v>
       </c>
       <c r="B17">
-        <v>981</v>
+        <v>3028</v>
       </c>
       <c r="C17">
-        <v>1022.55334345391</v>
+        <v>482.568259644277</v>
       </c>
       <c r="D17">
-        <v>4746.71882962853</v>
+        <v>9625.96539612402</v>
       </c>
       <c r="E17">
-        <v>0.306272566393438</v>
+        <v>0.6894761958834</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>3951293.4769674</v>
+        <v>4378501.54664203</v>
       </c>
       <c r="B18">
-        <v>1416</v>
+        <v>2888</v>
       </c>
       <c r="C18">
-        <v>887.678195705465</v>
+        <v>763.247022158778</v>
       </c>
       <c r="D18">
-        <v>2894.76857229332</v>
+        <v>7642.11631616895</v>
       </c>
       <c r="E18">
-        <v>0.243037710063721</v>
+        <v>1.43120140159059</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>3975229.8266604</v>
+        <v>4401134.15871776</v>
       </c>
       <c r="B19">
-        <v>1593</v>
+        <v>2873</v>
       </c>
       <c r="C19">
-        <v>887.678195705465</v>
+        <v>721.694732934602</v>
       </c>
       <c r="D19">
-        <v>7492.24125491284</v>
+        <v>9278.44259673053</v>
       </c>
       <c r="E19">
-        <v>0.456523638807873</v>
+        <v>1.18912870775453</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>3981895.49968627</v>
+        <v>4410716.7692045</v>
       </c>
       <c r="B20">
-        <v>1574</v>
+        <v>240</v>
       </c>
       <c r="C20">
-        <v>887.678195705465</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D20">
-        <v>7492.24125491284</v>
+        <v>30372.6270680987</v>
       </c>
       <c r="E20">
-        <v>0.453792091695951</v>
+        <v>1.29900527906299</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>4001755.64759241</v>
+        <v>4411033.17908504</v>
       </c>
       <c r="B21">
-        <v>1539</v>
+        <v>240</v>
       </c>
       <c r="C21">
-        <v>887.678195705465</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D21">
-        <v>7492.24125491284</v>
+        <v>33220.3159929285</v>
       </c>
       <c r="E21">
-        <v>0.450133036232049</v>
+        <v>1.41648970014674</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>4055362.20656925</v>
+        <v>4411098.49492872</v>
       </c>
       <c r="B22">
-        <v>1612</v>
+        <v>243</v>
       </c>
       <c r="C22">
-        <v>887.678195705465</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D22">
-        <v>7492.24125491284</v>
+        <v>34801.3927199067</v>
       </c>
       <c r="E22">
-        <v>0.486890017457043</v>
+        <v>1.4841666418863</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>4091127.84600012</v>
+        <v>4411120.07968002</v>
       </c>
       <c r="B23">
-        <v>1593</v>
+        <v>240</v>
       </c>
       <c r="C23">
-        <v>1030.42427675926</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D23">
-        <v>7492.24125491284</v>
+        <v>34002.4213477483</v>
       </c>
       <c r="E23">
-        <v>0.683864423136252</v>
+        <v>1.44875984861564</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>4092589.44264201</v>
+        <v>4411284.9891998</v>
       </c>
       <c r="B24">
-        <v>1630</v>
+        <v>240</v>
       </c>
       <c r="C24">
-        <v>1022.55334345391</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D24">
-        <v>6947.21541881574</v>
+        <v>35486.6070257827</v>
       </c>
       <c r="E24">
-        <v>0.680433787379498</v>
+        <v>1.51000248704163</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>4109135.4404287</v>
+        <v>4411407.07921178</v>
       </c>
       <c r="B25">
-        <v>1480</v>
+        <v>240</v>
       </c>
       <c r="C25">
-        <v>1042.58143201635</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D25">
-        <v>4661.09651272204</v>
+        <v>36585.4171336441</v>
       </c>
       <c r="E25">
-        <v>0.509340179430123</v>
+        <v>1.55534675973653</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>4127948.85059729</v>
+        <v>4411523.53179068</v>
       </c>
       <c r="B26">
-        <v>1371</v>
+        <v>240</v>
       </c>
       <c r="C26">
-        <v>887.678195705465</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D26">
-        <v>7492.24125491284</v>
+        <v>37633.4903437089</v>
       </c>
       <c r="E26">
-        <v>0.435995789566872</v>
+        <v>1.59860011380155</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>4150089.9903169</v>
+        <v>4414666.77426179</v>
       </c>
       <c r="B27">
-        <v>2168</v>
+        <v>188</v>
       </c>
       <c r="C27">
-        <v>887.678195705465</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D27">
-        <v>10446.966014536</v>
+        <v>34584.6332283952</v>
       </c>
       <c r="E27">
-        <v>0.779116761379869</v>
+        <v>1.43197483761102</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>4166559.99428197</v>
+        <v>4416092.77410753</v>
       </c>
       <c r="B28">
-        <v>858</v>
+        <v>188</v>
       </c>
       <c r="C28">
-        <v>1059.92178896587</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D28">
-        <v>1419.25840163854</v>
+        <v>47418.6318400049</v>
       </c>
       <c r="E28">
-        <v>0.150874356645709</v>
+        <v>1.94721815739368</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>4184908.7081319</v>
+        <v>4417891.51203157</v>
       </c>
       <c r="B29">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C29">
-        <v>1059.92178896587</v>
+        <v>1103.05082236388</v>
       </c>
       <c r="D29">
-        <v>1419.25840163854</v>
+        <v>32445.4542497048</v>
       </c>
       <c r="E29">
-        <v>0.101084163498593</v>
+        <v>1.40062360819189</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>4236396.52508314</v>
+        <v>4419659.45637617</v>
       </c>
       <c r="B30">
-        <v>1518</v>
+        <v>2916</v>
       </c>
       <c r="C30">
-        <v>724.445611661838</v>
+        <v>571.91932337831</v>
       </c>
       <c r="D30">
-        <v>6295.92737192077</v>
+        <v>6574.80903910942</v>
       </c>
       <c r="E30">
-        <v>0.320556693683452</v>
+        <v>0.710421797663215</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>4311295.80791395</v>
+        <v>4426884.5003455</v>
       </c>
       <c r="B31">
-        <v>1185</v>
+        <v>124</v>
       </c>
       <c r="C31">
-        <v>887.678195705465</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D31">
-        <v>7492.24125491284</v>
+        <v>58423.0872824849</v>
       </c>
       <c r="E31">
-        <v>0.426592186249258</v>
+        <v>2.31078828776659</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>4355763.28015706</v>
+        <v>4427572.53832114</v>
       </c>
       <c r="B32">
-        <v>2367</v>
+        <v>124</v>
       </c>
       <c r="C32">
-        <v>919.254061093366</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D32">
-        <v>12506.0475554062</v>
+        <v>64615.429063215</v>
       </c>
       <c r="E32">
-        <v>1.11944627393133</v>
+        <v>2.55155379408215</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>4396171.51981923</v>
+        <v>4428158.87822586</v>
       </c>
       <c r="B33">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C33">
-        <v>1059.92178896587</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D33">
-        <v>144.850082077046</v>
+        <v>69892.4882057386</v>
       </c>
       <c r="E33">
-        <v>0.0445597759946305</v>
+        <v>2.75679948751535</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>4399750.47367059</v>
+        <v>4428727.74391934</v>
       </c>
       <c r="B34">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="C34">
-        <v>1059.92178896587</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D34">
-        <v>4027.11482883467</v>
+        <v>75012.2794470277</v>
       </c>
       <c r="E34">
-        <v>0.197873870477752</v>
+        <v>2.95598775800568</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>4402383.15149808</v>
+        <v>4449480.44658224</v>
       </c>
       <c r="B35">
-        <v>472</v>
+        <v>36</v>
       </c>
       <c r="C35">
-        <v>1059.92178896587</v>
+        <v>1093.38080932301</v>
       </c>
       <c r="D35">
-        <v>32742.705613396</v>
+        <v>38431.1903502174</v>
       </c>
       <c r="E35">
-        <v>1.53045923374762</v>
+        <v>1.46748505572557</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>4402403.31990608</v>
+        <v>4475422.04167998</v>
       </c>
       <c r="B36">
-        <v>187</v>
+        <v>2873</v>
       </c>
       <c r="C36">
-        <v>1059.92178896587</v>
+        <v>645.543807179659</v>
       </c>
       <c r="D36">
-        <v>49329.7678610463</v>
+        <v>10760.4427860563</v>
       </c>
       <c r="E36">
-        <v>1.94805360922766</v>
+        <v>0.963329300639201</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>4402423.32207524</v>
+        <v>4481316.37177146</v>
       </c>
       <c r="B37">
-        <v>1795</v>
+        <v>200</v>
       </c>
       <c r="C37">
-        <v>654.892258996827</v>
+        <v>1167.42645400832</v>
       </c>
       <c r="D37">
-        <v>7492.24125491284</v>
+        <v>34436.7052332723</v>
       </c>
       <c r="E37">
-        <v>0.384444010980056</v>
+        <v>1.57016960703647</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>4419808.54431656</v>
+        <v>4495749.94312634</v>
       </c>
       <c r="B38">
-        <v>563</v>
+        <v>240</v>
       </c>
       <c r="C38">
-        <v>1059.92178896587</v>
+        <v>1177.50874360641</v>
       </c>
       <c r="D38">
-        <v>29469.0999955439</v>
+        <v>31414.7256537485</v>
       </c>
       <c r="E38">
-        <v>1.46238589262288</v>
+        <v>1.49089737299565</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>4429707.31388593</v>
+        <v>4561518.81549609</v>
       </c>
       <c r="B39">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>1059.92178896587</v>
+        <v>1226.68187832501</v>
       </c>
       <c r="D39">
-        <v>14638.3198062041</v>
+        <v>34584.6332283952</v>
       </c>
       <c r="E39">
-        <v>0.574126098860063</v>
+        <v>1.51925664753212</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>4429992.34772388</v>
+        <v>4569681.75456036</v>
       </c>
       <c r="B40">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C40">
-        <v>1059.92178896587</v>
+        <v>942.066045909237</v>
       </c>
       <c r="D40">
-        <v>12073.015264593</v>
+        <v>45625.7132450043</v>
       </c>
       <c r="E40">
-        <v>0.480373734378998</v>
+        <v>1.55140008972025</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>4430182.34783271</v>
+        <v>4605917.42310122</v>
       </c>
       <c r="B41">
-        <v>76</v>
+        <v>3618</v>
       </c>
       <c r="C41">
-        <v>1059.92178896587</v>
+        <v>670.296872296918</v>
       </c>
       <c r="D41">
-        <v>10363.0142851701</v>
+        <v>9392.679911349</v>
       </c>
       <c r="E41">
-        <v>0.41788674800364</v>
+        <v>3.25429761282742</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>4430650.83166514</v>
+        <v>4705133.05938894</v>
       </c>
       <c r="B42">
-        <v>76</v>
+        <v>3493</v>
       </c>
       <c r="C42">
-        <v>1059.92178896587</v>
+        <v>456.963376410543</v>
       </c>
       <c r="D42">
-        <v>5156.84011618024</v>
+        <v>8138.57403593693</v>
       </c>
       <c r="E42">
-        <v>0.227709479905703</v>
+        <v>1.04079439099748</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>4430865.32138658</v>
+        <v>4723460.9261716</v>
       </c>
       <c r="B43">
-        <v>76</v>
+        <v>2971</v>
       </c>
       <c r="C43">
-        <v>1059.92178896587</v>
+        <v>571.91932337831</v>
       </c>
       <c r="D43">
-        <v>6122.0438626754</v>
+        <v>5433.17315478255</v>
       </c>
       <c r="E43">
-        <v>0.262981168719897</v>
+        <v>0.740376010754638</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>4431179.79818744</v>
+        <v>4737452.75922526</v>
       </c>
       <c r="B44">
-        <v>76</v>
+        <v>2906</v>
       </c>
       <c r="C44">
-        <v>1062.42949211362</v>
+        <v>670.296872296918</v>
       </c>
       <c r="D44">
-        <v>8112.36006238842</v>
+        <v>12106.9723235305</v>
       </c>
       <c r="E44">
-        <v>0.336684859648634</v>
+        <v>1.07159659719616</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>4487635.41502362</v>
+        <v>4744536.79653344</v>
       </c>
       <c r="B45">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C45">
-        <v>1170.86029027366</v>
+        <v>1333.90925920213</v>
       </c>
       <c r="D45">
-        <v>4072.41982372247</v>
+        <v>51811.1993101071</v>
       </c>
       <c r="E45">
-        <v>0.216861295244407</v>
+        <v>2.797722403571</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>4563543.2491971</v>
+        <v>4759581.68676397</v>
       </c>
       <c r="B46">
-        <v>1185</v>
+        <v>2242</v>
       </c>
       <c r="C46">
-        <v>1419.44464433334</v>
+        <v>233.11231800114</v>
       </c>
       <c r="D46">
-        <v>7492.24125491284</v>
+        <v>4922.74160935236</v>
       </c>
       <c r="E46">
-        <v>1.27470080136736</v>
+        <v>0.214573952399839</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>4585262.14318462</v>
+        <v>4764444.65057091</v>
       </c>
       <c r="B47">
-        <v>1330</v>
+        <v>3618</v>
       </c>
       <c r="C47">
-        <v>1383.03326225539</v>
+        <v>670.296872296918</v>
       </c>
       <c r="D47">
-        <v>7725.51355470638</v>
+        <v>10564.8736708293</v>
       </c>
       <c r="E47">
-        <v>1.52373080528843</v>
+        <v>4.31460772890995</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>4621188.84329052</v>
+        <v>4795857.82631817</v>
       </c>
       <c r="B48">
-        <v>1698</v>
+        <v>3304</v>
       </c>
       <c r="C48">
-        <v>887.678195705465</v>
+        <v>670.296872296918</v>
       </c>
       <c r="D48">
-        <v>11468.2569654453</v>
+        <v>11658.5095296316</v>
       </c>
       <c r="E48">
-        <v>0.878904637589424</v>
+        <v>1.88825736137206</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>4679247.04777807</v>
+        <v>4965091.20172115</v>
       </c>
       <c r="B49">
-        <v>1480</v>
+        <v>3973</v>
       </c>
       <c r="C49">
-        <v>464.75237743133</v>
+        <v>298.638703602274</v>
       </c>
       <c r="D49">
-        <v>1811.52218048035</v>
+        <v>9570.48274779684</v>
       </c>
       <c r="E49">
-        <v>0.0978179459203013</v>
+        <v>1.17676014660975</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>4681189.28274474</v>
+        <v>5109346.80955441</v>
       </c>
       <c r="B50">
-        <v>1185</v>
+        <v>2242</v>
       </c>
       <c r="C50">
-        <v>1020.40855313595</v>
+        <v>138.855177562764</v>
       </c>
       <c r="D50">
-        <v>23285.5395563521</v>
+        <v>3141.67509678102</v>
       </c>
       <c r="E50">
-        <v>1.76702030961274</v>
+        <v>0.139404258844564</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>4705196.6795452</v>
+        <v>5109773.20587034</v>
       </c>
       <c r="B51">
-        <v>76</v>
+        <v>2971</v>
       </c>
       <c r="C51">
-        <v>1400.31134328679</v>
+        <v>571.91932337831</v>
       </c>
       <c r="D51">
-        <v>583.526320006844</v>
+        <v>3866.76463402919</v>
       </c>
       <c r="E51">
-        <v>0.111290027227179</v>
+        <v>0.734606194391685</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>4827941.01567751</v>
+        <v>5208067.69238724</v>
       </c>
       <c r="B52">
-        <v>1601</v>
+        <v>3367</v>
       </c>
       <c r="C52">
-        <v>1022.55334345391</v>
+        <v>571.91932337831</v>
       </c>
       <c r="D52">
-        <v>13146.5045121079</v>
+        <v>14814.3515858637</v>
       </c>
       <c r="E52">
-        <v>1.46013344308167</v>
+        <v>1.15435464439492</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>4842319.90822489</v>
+        <v>5313550.23841531</v>
       </c>
       <c r="B53">
-        <v>1371</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>887.678195705465</v>
+        <v>809.728879588371</v>
       </c>
       <c r="D53">
-        <v>21479.9509052628</v>
+        <v>40768.4315206943</v>
       </c>
       <c r="E53">
-        <v>1.49201760451435</v>
+        <v>1.17883220593929</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>4856249.11343424</v>
+        <v>5381371.12945544</v>
       </c>
       <c r="B54">
-        <v>76</v>
+        <v>2242</v>
       </c>
       <c r="C54">
-        <v>1420.38089762217</v>
+        <v>233.11231800114</v>
       </c>
       <c r="D54">
-        <v>144.850082077046</v>
+        <v>8027.68248046642</v>
       </c>
       <c r="E54">
-        <v>0.0916713870144583</v>
+        <v>0.319843811205614</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>5047533.31552236</v>
+        <v>5415514.59598772</v>
       </c>
       <c r="B55">
-        <v>1593</v>
+        <v>2319</v>
       </c>
       <c r="C55">
-        <v>887.678195705465</v>
+        <v>868.145479701199</v>
       </c>
       <c r="D55">
-        <v>17972.0248722281</v>
+        <v>1068.10090375683</v>
       </c>
       <c r="E55">
-        <v>1.56449953342368</v>
+        <v>0.636496495126169</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>5050683.00139636</v>
+        <v>5434083.1161573</v>
       </c>
       <c r="B56">
-        <v>2098</v>
+        <v>1551</v>
       </c>
       <c r="C56">
-        <v>1230.67437703912</v>
+        <v>233.11231800114</v>
       </c>
       <c r="D56">
-        <v>3787.95076128901</v>
+        <v>698.901146785603</v>
       </c>
       <c r="E56">
-        <v>-3.26169264889692</v>
+        <v>0.0405359341219319</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>5123424.69653391</v>
+        <v>5517252.68740367</v>
       </c>
       <c r="B57">
-        <v>1509</v>
+        <v>5938</v>
       </c>
       <c r="C57">
-        <v>617.184673736136</v>
+        <v>0.692878390705573</v>
       </c>
       <c r="D57">
-        <v>9501.94560063691</v>
+        <v>18920.9093617079</v>
       </c>
       <c r="E57">
-        <v>0.4978031632626</v>
+        <v>2.75375419013127</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>5186383.44961017</v>
+        <v>5682259.03608338</v>
       </c>
       <c r="B58">
-        <v>187</v>
+        <v>1551</v>
       </c>
       <c r="C58">
-        <v>756.588748702726</v>
+        <v>233.11231800114</v>
       </c>
       <c r="D58">
-        <v>39579.2737152571</v>
+        <v>27377.5716567773</v>
       </c>
       <c r="E58">
-        <v>1.17276718386234</v>
+        <v>0.894812472254449</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>5186521.89816752</v>
+        <v>5683179.13488886</v>
       </c>
       <c r="B59">
-        <v>76</v>
+        <v>1551</v>
       </c>
       <c r="C59">
-        <v>808.117094388664</v>
+        <v>233.11231800114</v>
       </c>
       <c r="D59">
-        <v>2748.89573281135</v>
+        <v>35658.4609060607</v>
       </c>
       <c r="E59">
-        <v>0.10370172236113</v>
+        <v>1.16009941826007</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>5298166.89589275</v>
+        <v>5719686.74400591</v>
       </c>
       <c r="B60">
-        <v>1371</v>
+        <v>5219</v>
       </c>
       <c r="C60">
-        <v>1392.51925224192</v>
+        <v>145.026423472807</v>
       </c>
       <c r="D60">
-        <v>14384.0470157332</v>
+        <v>12106.9723235305</v>
       </c>
       <c r="E60">
-        <v>5.22241952377792</v>
+        <v>7.00326138742145</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>5344343.61586925</v>
+        <v>5732747.46478962</v>
       </c>
       <c r="B61">
-        <v>100</v>
+        <v>1801</v>
       </c>
       <c r="C61">
-        <v>1761.9304137062</v>
+        <v>275.08386406128</v>
       </c>
       <c r="D61">
-        <v>1990.63938430488</v>
+        <v>21786.3418634605</v>
       </c>
       <c r="E61">
-        <v>0.46530577032213</v>
+        <v>0.838757558658306</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>5464525.91835947</v>
+        <v>5773837.30927491</v>
       </c>
       <c r="B62">
-        <v>194</v>
+        <v>1429</v>
       </c>
       <c r="C62">
-        <v>687.445305020189</v>
+        <v>1428.57142857143</v>
       </c>
       <c r="D62">
-        <v>7725.51355470638</v>
+        <v>42857.1428571429</v>
       </c>
       <c r="E62">
-        <v>0.232947699742726</v>
+        <v>-55.7745261705267</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>5516509.51571414</v>
+        <v>5876081.94767828</v>
       </c>
       <c r="B63">
-        <v>1596</v>
+        <v>188</v>
       </c>
       <c r="C63">
-        <v>1747.37543118101</v>
+        <v>1781.10772581572</v>
       </c>
       <c r="D63">
-        <v>11344.8074227475</v>
+        <v>22804.8518494315</v>
       </c>
       <c r="E63">
-        <v>-3.06066431566642</v>
+        <v>4.39418353584179</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>5544749.31269568</v>
+        <v>5876576.13728</v>
       </c>
       <c r="B64">
-        <v>1330</v>
+        <v>1378</v>
       </c>
       <c r="C64">
-        <v>1383.03326225539</v>
+        <v>148.21643105674</v>
       </c>
       <c r="D64">
-        <v>16276.1650991837</v>
+        <v>47039.1256955449</v>
       </c>
       <c r="E64">
-        <v>9.96362021549916</v>
+        <v>1.32335031123499</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>5563329.4667058</v>
+        <v>5973375.04169834</v>
       </c>
       <c r="B65">
-        <v>1593</v>
+        <v>188</v>
       </c>
       <c r="C65">
-        <v>310.154285131011</v>
+        <v>2239.54160272784</v>
       </c>
       <c r="D65">
-        <v>7492.24125491284</v>
+        <v>9233.98435287439</v>
       </c>
       <c r="E65">
-        <v>0.285875240145995</v>
+        <v>-24.7426546214822</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>5565624.92427213</v>
+        <v>6059783.99473311</v>
       </c>
       <c r="B66">
-        <v>194</v>
+        <v>4276</v>
       </c>
       <c r="C66">
-        <v>1897.8015614372</v>
+        <v>32.9082291056236</v>
       </c>
       <c r="D66">
-        <v>4364.21909728853</v>
+        <v>6537.76878879089</v>
       </c>
       <c r="E66">
-        <v>1.5130895835982</v>
+        <v>0.830160290242022</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>5758006.86820518</v>
+        <v>6180878.67248843</v>
       </c>
       <c r="B67">
-        <v>2460</v>
+        <v>1244</v>
       </c>
       <c r="C67">
-        <v>1383.03326225539</v>
+        <v>1632.79980197472</v>
       </c>
       <c r="D67">
-        <v>5414.34255839407</v>
+        <v>31386.7007356822</v>
       </c>
       <c r="E67">
-        <v>-0.757334786685979</v>
+        <v>-8.10920859814484</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>5772023.2664924</v>
+        <v>6271795.46813503</v>
       </c>
       <c r="B68">
-        <v>1429</v>
+        <v>188</v>
       </c>
       <c r="C68">
-        <v>1428.57142857143</v>
+        <v>499.260292963652</v>
       </c>
       <c r="D68">
-        <v>26530.7578146081</v>
+        <v>13894.8292687045</v>
       </c>
       <c r="E68">
-        <v>-35.9001837908512</v>
+        <v>0.346394171459145</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>5778599.21403681</v>
+        <v>6297483.93565483</v>
       </c>
       <c r="B69">
-        <v>1429</v>
+        <v>188</v>
       </c>
       <c r="C69">
-        <v>1428.57142857143</v>
+        <v>493.38696384363</v>
       </c>
       <c r="D69">
-        <v>85714.2857142857</v>
+        <v>28332.4373358569</v>
       </c>
       <c r="E69">
-        <v>-105.203051241113</v>
+        <v>0.690129334640067</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>5907727.54343101</v>
+        <v>6307266.5382834</v>
       </c>
       <c r="B70">
-        <v>1857</v>
+        <v>2906</v>
       </c>
       <c r="C70">
-        <v>188.710726000239</v>
+        <v>5.03574010021498</v>
       </c>
       <c r="D70">
-        <v>80877.8381101355</v>
+        <v>12106.9723235305</v>
       </c>
       <c r="E70">
-        <v>2.86594157291208</v>
+        <v>0.487247679246801</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>5930991.98807065</v>
+        <v>6524728.22615845</v>
       </c>
       <c r="B71">
-        <v>848</v>
+        <v>2906</v>
       </c>
       <c r="C71">
-        <v>276.385920223578</v>
+        <v>1417.87229003004</v>
       </c>
       <c r="D71">
-        <v>11113.1527958468</v>
+        <v>12795.606682123</v>
       </c>
       <c r="E71">
-        <v>0.294799219799247</v>
+        <v>-1.08780338884876</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>5933896.41416396</v>
+        <v>6725913.98945829</v>
       </c>
       <c r="B72">
-        <v>848</v>
+        <v>47</v>
       </c>
       <c r="C72">
-        <v>276.385920223578</v>
+        <v>457.798283588894</v>
       </c>
       <c r="D72">
-        <v>50376.9658980047</v>
+        <v>18546.0655010668</v>
       </c>
       <c r="E72">
-        <v>1.2954927284771</v>
+        <v>0.425465507474859</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>5938618.3693962</v>
+        <v>6871751.80912801</v>
       </c>
       <c r="B73">
-        <v>848</v>
+        <v>2852</v>
       </c>
       <c r="C73">
-        <v>276.385920223578</v>
+        <v>605.77556858584</v>
       </c>
       <c r="D73">
-        <v>92874.5629880678</v>
+        <v>89890.5377962267</v>
       </c>
       <c r="E73">
-        <v>2.38027109774279</v>
+        <v>25.2110402324289</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>6190446.83733387</v>
+        <v>7106594.46790063</v>
       </c>
       <c r="B74">
-        <v>848</v>
+        <v>406</v>
       </c>
       <c r="C74">
-        <v>211.643385611146</v>
+        <v>200.238362838399</v>
       </c>
       <c r="D74">
-        <v>69654.0386078533</v>
+        <v>15147.1336834127</v>
       </c>
       <c r="E74">
-        <v>1.70645731302293</v>
+        <v>0.326917123915005</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>6225259.59785632</v>
+        <v>7114319.42390906</v>
       </c>
       <c r="B75">
-        <v>848</v>
+        <v>2906</v>
       </c>
       <c r="C75">
-        <v>202.383213359027</v>
+        <v>208.611725633205</v>
       </c>
       <c r="D75">
-        <v>36016.7939122223</v>
+        <v>32019.5002425451</v>
       </c>
       <c r="E75">
-        <v>0.880735746058059</v>
+        <v>2.32791289873551</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>6285841.32791764</v>
+        <v>7115299.66768362</v>
       </c>
       <c r="B76">
-        <v>194</v>
+        <v>2906</v>
       </c>
       <c r="C76">
-        <v>493.397830410191</v>
+        <v>204.632317584283</v>
       </c>
       <c r="D76">
-        <v>30754.4317825477</v>
+        <v>19055.6412588232</v>
       </c>
       <c r="E76">
-        <v>0.74951368031002</v>
+        <v>1.39758839715531</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>6328044.5209312</v>
+        <v>7146193.23380673</v>
       </c>
       <c r="B77">
-        <v>1185</v>
+        <v>188</v>
       </c>
       <c r="C77">
-        <v>1984.11704244766</v>
+        <v>2195.64759730576</v>
       </c>
       <c r="D77">
-        <v>6029.82484098493</v>
+        <v>34584.6332283952</v>
       </c>
       <c r="E77">
-        <v>-0.79013492125824</v>
+        <v>-6.06950092988319</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>6353830.77360606</v>
+        <v>7170133.65821767</v>
       </c>
       <c r="B78">
-        <v>1211</v>
+        <v>3618</v>
       </c>
       <c r="C78">
-        <v>22.3406250290276</v>
+        <v>670.296872296918</v>
       </c>
       <c r="D78">
-        <v>12764.0507670268</v>
+        <v>1634.53052958511</v>
       </c>
       <c r="E78">
-        <v>0.313456715690685</v>
+        <v>-0.421557533937506</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>6616335.49727413</v>
+        <v>7300714.23090214</v>
       </c>
       <c r="B79">
-        <v>2744</v>
+        <v>3618</v>
       </c>
       <c r="C79">
-        <v>276.385920223578</v>
+        <v>670.296872296918</v>
       </c>
       <c r="D79">
-        <v>349.446223005227</v>
+        <v>25028.3770172878</v>
       </c>
       <c r="E79">
-        <v>0.0855712097817007</v>
+        <v>-11.2261099425898</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>6701690.28289095</v>
+        <v>7532473.80853621</v>
       </c>
       <c r="B80">
-        <v>328</v>
+        <v>124</v>
       </c>
       <c r="C80">
-        <v>333.321466140762</v>
+        <v>233.006677256502</v>
       </c>
       <c r="D80">
-        <v>58908.7229157766</v>
+        <v>82692.5547611731</v>
       </c>
       <c r="E80">
-        <v>1.33381145362988</v>
+        <v>1.66053426320143</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>6969819.7683523</v>
+        <v>7597763.98952276</v>
       </c>
       <c r="B81">
-        <v>1185</v>
+        <v>88</v>
       </c>
       <c r="C81">
-        <v>2057.69451022518</v>
+        <v>233.11231800114</v>
       </c>
       <c r="D81">
-        <v>1985.40559940985</v>
+        <v>935.488333725212</v>
       </c>
       <c r="E81">
-        <v>-0.294983759978639</v>
+        <v>0.0235346271730997</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>7033622.10134314</v>
+        <v>7708712.3328352</v>
       </c>
       <c r="B82">
-        <v>848</v>
+        <v>511</v>
       </c>
       <c r="C82">
-        <v>11.140808504107</v>
+        <v>9.79779887963196</v>
       </c>
       <c r="D82">
-        <v>25290.116648554</v>
+        <v>51811.1993101071</v>
       </c>
       <c r="E82">
-        <v>0.545513529740776</v>
+        <v>1.01488723294884</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>7250429.94655382</v>
+        <v>8157800.28912984</v>
       </c>
       <c r="B83">
-        <v>693</v>
+        <v>124</v>
       </c>
       <c r="C83">
-        <v>32.3838284031814</v>
+        <v>2514.13962767432</v>
       </c>
       <c r="D83">
-        <v>4352.25585142569</v>
+        <v>56873.7299470038</v>
       </c>
       <c r="E83">
-        <v>0.0942066423737323</v>
+        <v>-4.18341000120861</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>7375021.47133481</v>
+        <v>8289222.8700003</v>
       </c>
       <c r="B84">
-        <v>520</v>
+        <v>188</v>
       </c>
       <c r="C84">
-        <v>83.6990977593632</v>
+        <v>23.1066556020669</v>
       </c>
       <c r="D84">
-        <v>11113.1527958468</v>
+        <v>34584.6332283952</v>
       </c>
       <c r="E84">
-        <v>0.230840140768277</v>
+        <v>0.629356045543313</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>7561325.43268305</v>
+        <v>8989536.86012849</v>
       </c>
       <c r="B85">
-        <v>13</v>
+        <v>2912</v>
       </c>
       <c r="C85">
-        <v>276.385920223578</v>
+        <v>2193.40415388584</v>
       </c>
       <c r="D85">
-        <v>19623.791406405</v>
+        <v>17364.2293111359</v>
       </c>
       <c r="E85">
-        <v>0.396156248795336</v>
+        <v>-0.582750412437883</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>8375517.1272429</v>
+        <v>9343466.95209284</v>
       </c>
       <c r="B86">
-        <v>187</v>
+        <v>2486</v>
       </c>
       <c r="C86">
-        <v>2.80141864429834</v>
+        <v>2460.32942747984</v>
       </c>
       <c r="D86">
-        <v>19730.6541487943</v>
+        <v>9476.55767949854</v>
       </c>
       <c r="E86">
-        <v>0.355340464954804</v>
+        <v>-0.316566772493463</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>8548047.0829247</v>
+        <v>15540147.6783496</v>
       </c>
       <c r="B87">
-        <v>76</v>
+        <v>4286</v>
       </c>
       <c r="C87">
-        <v>14.3178321799519</v>
+        <v>2857.14285714286</v>
       </c>
       <c r="D87">
-        <v>144.850082077046</v>
+        <v>71428.5714285714</v>
       </c>
       <c r="E87">
-        <v>0.00309959881674946</v>
+        <v>-0.957769729506927</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>10600774.1362006</v>
+        <v>16134399.8381406</v>
       </c>
       <c r="B88">
-        <v>1429</v>
+        <v>124</v>
       </c>
       <c r="C88">
-        <v>2857.14285714286</v>
+        <v>4668.20390762309</v>
       </c>
       <c r="D88">
-        <v>42857.1428571429</v>
+        <v>39523.8130558023</v>
       </c>
       <c r="E88">
-        <v>-1.12297102342341</v>
+        <v>-0.591232063986418</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>11625845.8157368</v>
+        <v>17864445.5203023</v>
       </c>
       <c r="B89">
-        <v>76</v>
+        <v>8921</v>
       </c>
       <c r="C89">
-        <v>3511.03380557672</v>
+        <v>233.11231800114</v>
       </c>
       <c r="D89">
-        <v>144.850082077046</v>
+        <v>515.437905060138</v>
       </c>
       <c r="E89">
-        <v>-0.0883484103113231</v>
+        <v>-0.0416567151758307</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>11706977.467638</v>
+        <v>18433533.6856317</v>
       </c>
       <c r="B90">
-        <v>7143</v>
+        <v>2857</v>
       </c>
       <c r="C90">
-        <v>1428.57142857143</v>
+        <v>4285.71428571429</v>
       </c>
       <c r="D90">
-        <v>14285.7142857143</v>
+        <v>85714.2857142857</v>
       </c>
       <c r="E90">
-        <v>-0.274088315524977</v>
+        <v>-0.906536631618195</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>16068694.1011575</v>
+        <v>18544103.5910568</v>
       </c>
       <c r="B91">
-        <v>2857</v>
+        <v>4286</v>
       </c>
       <c r="C91">
         <v>4285.71428571429</v>
@@ -1930,58 +1930,58 @@
         <v>28571.4285714286</v>
       </c>
       <c r="E91">
-        <v>-0.38096696124128</v>
+        <v>-0.318086106012612</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>20980668.1797636</v>
+        <v>20082975.1173336</v>
       </c>
       <c r="B92">
         <v>8571</v>
       </c>
       <c r="C92">
-        <v>7142.85714285714</v>
+        <v>2857.14285714286</v>
       </c>
       <c r="D92">
-        <v>85714.2857142857</v>
+        <v>14285.7142857143</v>
       </c>
       <c r="E92">
-        <v>-0.77603438027224</v>
+        <v>-0.151398394186692</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>21059325.0307752</v>
+        <v>21583881.3490185</v>
       </c>
       <c r="B93">
-        <v>7143</v>
+        <v>10000</v>
       </c>
       <c r="C93">
-        <v>2857.14285714286</v>
+        <v>1428.57142857143</v>
       </c>
       <c r="D93">
         <v>100000</v>
       </c>
       <c r="E93">
-        <v>-0.899452611618965</v>
+        <v>-0.913448231815579</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>23392513.0505901</v>
+        <v>22930832.1372871</v>
       </c>
       <c r="B94">
-        <v>2857</v>
+        <v>7143</v>
       </c>
       <c r="C94">
         <v>7142.85714285714</v>
       </c>
       <c r="D94">
-        <v>71428.5714285714</v>
+        <v>85714.2857142857</v>
       </c>
       <c r="E94">
-        <v>-0.580372579150286</v>
+        <v>-0.699984212172992</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2020,75 +2020,75 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>26486791.3739845</v>
+        <v>35884457.4834066</v>
       </c>
       <c r="B97">
-        <v>8571</v>
+        <v>2857</v>
       </c>
       <c r="C97">
-        <v>4285.71428571429</v>
+        <v>8571.42857142857</v>
       </c>
       <c r="D97">
-        <v>42857.1428571429</v>
+        <v>100000</v>
       </c>
       <c r="E97">
-        <v>-0.291197158597544</v>
+        <v>-0.495122856366093</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>30426872.7829687</v>
+        <v>37681377.2555752</v>
       </c>
       <c r="B98">
-        <v>4286</v>
+        <v>1429</v>
       </c>
       <c r="C98">
         <v>10000</v>
       </c>
       <c r="D98">
-        <v>100000</v>
+        <v>14285.7142857143</v>
       </c>
       <c r="E98">
-        <v>-0.596787324623685</v>
+        <v>-0.103446905397738</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>36594075.3097996</v>
+        <v>37974123.6271293</v>
       </c>
       <c r="B99">
-        <v>4286</v>
+        <v>8571</v>
       </c>
       <c r="C99">
-        <v>8571.42857142857</v>
+        <v>7142.85714285714</v>
       </c>
       <c r="D99">
-        <v>14285.7142857143</v>
+        <v>28571.4285714286</v>
       </c>
       <c r="E99">
-        <v>-0.101871991872319</v>
+        <v>-0.152205656468767</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>46547198.3150749</v>
+        <v>41749901.052711</v>
       </c>
       <c r="B100">
-        <v>10000</v>
+        <v>7143</v>
       </c>
       <c r="C100">
         <v>8571.42857142857</v>
       </c>
       <c r="D100">
-        <v>71428.5714285714</v>
+        <v>42857.1428571429</v>
       </c>
       <c r="E100">
-        <v>-0.271340589291061</v>
+        <v>-0.191937901488258</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>52681085.6381219</v>
+        <v>53388954.4741442</v>
       </c>
       <c r="B101">
         <v>10000</v>
@@ -2097,10 +2097,10 @@
         <v>10000</v>
       </c>
       <c r="D101">
-        <v>28571.4285714286</v>
+        <v>71428.5714285714</v>
       </c>
       <c r="E101">
-        <v>-0.117533417230242</v>
+        <v>-0.237345951492068</v>
       </c>
     </row>
   </sheetData>

--- a/Engine/results.xlsx
+++ b/Engine/results.xlsx
@@ -405,1693 +405,1693 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>4110954.86224926</v>
+        <v>4400885.18897347</v>
       </c>
       <c r="B2">
-        <v>2888</v>
+        <v>471</v>
       </c>
       <c r="C2">
-        <v>674.823877519005</v>
+        <v>977.510121220199</v>
       </c>
       <c r="D2">
-        <v>8051.78188275135</v>
+        <v>34313.3126141847</v>
       </c>
       <c r="E2">
-        <v>0.897011196648189</v>
+        <v>1.44555902064541</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>4123396.76341082</v>
+        <v>4401127.31271663</v>
       </c>
       <c r="B3">
-        <v>2894</v>
+        <v>471</v>
       </c>
       <c r="C3">
-        <v>674.823877519005</v>
+        <v>977.510121220199</v>
       </c>
       <c r="D3">
-        <v>7842.24562486707</v>
+        <v>36492.426302678</v>
       </c>
       <c r="E3">
-        <v>0.904076753785699</v>
+        <v>1.53465530522826</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>4142553.83019822</v>
+        <v>4401200.95776202</v>
       </c>
       <c r="B4">
-        <v>2888</v>
+        <v>480</v>
       </c>
       <c r="C4">
-        <v>606.683782207199</v>
+        <v>977.510121220199</v>
       </c>
       <c r="D4">
-        <v>8622.15365956532</v>
+        <v>33757.0207035659</v>
       </c>
       <c r="E4">
-        <v>0.772607919248676</v>
+        <v>1.42980369401928</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>4146397.65588329</v>
+        <v>4412532.58426708</v>
       </c>
       <c r="B5">
-        <v>2981</v>
+        <v>589</v>
       </c>
       <c r="C5">
-        <v>674.823877519005</v>
+        <v>977.510121220199</v>
       </c>
       <c r="D5">
-        <v>8051.78188275135</v>
+        <v>34347.9192567138</v>
       </c>
       <c r="E5">
-        <v>1.00197768798684</v>
+        <v>1.54594590913686</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4154681.16270219</v>
+        <v>4414072.84965861</v>
       </c>
       <c r="B6">
-        <v>2888</v>
+        <v>599</v>
       </c>
       <c r="C6">
-        <v>627.686692429166</v>
+        <v>977.510121220199</v>
       </c>
       <c r="D6">
-        <v>7975.84177056508</v>
+        <v>33115.8243458826</v>
       </c>
       <c r="E6">
-        <v>0.80427876489639</v>
+        <v>1.50086150502052</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>4176620.82092099</v>
+        <v>4424204.14823384</v>
       </c>
       <c r="B7">
-        <v>2873</v>
+        <v>170</v>
       </c>
       <c r="C7">
-        <v>571.91932337831</v>
+        <v>1107.38800100347</v>
       </c>
       <c r="D7">
-        <v>8734.87906408344</v>
+        <v>24505.8621517738</v>
       </c>
       <c r="E7">
-        <v>0.701382144029363</v>
+        <v>1.0345523756011</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>4180581.52881229</v>
+        <v>4424951.6568704</v>
       </c>
       <c r="B8">
-        <v>2873</v>
+        <v>170</v>
       </c>
       <c r="C8">
-        <v>639.670597771826</v>
+        <v>1107.38800100347</v>
       </c>
       <c r="D8">
-        <v>9743.01363669133</v>
+        <v>31233.4398808548</v>
       </c>
       <c r="E8">
-        <v>0.834582719602757</v>
+        <v>1.30614941983845</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>4213186.34982211</v>
+        <v>4425922.27908446</v>
       </c>
       <c r="B9">
-        <v>2971</v>
+        <v>170</v>
       </c>
       <c r="C9">
-        <v>571.91932337831</v>
+        <v>1107.38800100347</v>
       </c>
       <c r="D9">
-        <v>9625.96539612402</v>
+        <v>39969.0398074</v>
       </c>
       <c r="E9">
-        <v>0.779521110382623</v>
+        <v>1.65897419124433</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>4218176.45323407</v>
+        <v>4426704.6818908</v>
       </c>
       <c r="B10">
-        <v>2888</v>
+        <v>170</v>
       </c>
       <c r="C10">
-        <v>674.823877519005</v>
+        <v>1107.38800100347</v>
       </c>
       <c r="D10">
-        <v>7019.22998449514</v>
+        <v>47010.665064376</v>
       </c>
       <c r="E10">
-        <v>0.908157177118328</v>
+        <v>1.94351421518483</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>4225403.47019635</v>
+        <v>4428906.78010537</v>
       </c>
       <c r="B11">
-        <v>2971</v>
+        <v>471</v>
       </c>
       <c r="C11">
-        <v>571.91932337831</v>
+        <v>952.060178680085</v>
       </c>
       <c r="D11">
-        <v>10068.8735503158</v>
+        <v>32632.2959481024</v>
       </c>
       <c r="E11">
-        <v>0.78241665718034</v>
+        <v>1.33671081664803</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>4229591.5314428</v>
+        <v>4432846.39685616</v>
       </c>
       <c r="B12">
-        <v>2856</v>
+        <v>123</v>
       </c>
       <c r="C12">
-        <v>712.877911029973</v>
+        <v>1107.38800100347</v>
       </c>
       <c r="D12">
-        <v>8350.6339821697</v>
+        <v>46389.2313334526</v>
       </c>
       <c r="E12">
-        <v>1.04742238446377</v>
+        <v>1.87133209922475</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>4231159.33438104</v>
+        <v>4432970.29659627</v>
       </c>
       <c r="B13">
-        <v>3040</v>
+        <v>123</v>
       </c>
       <c r="C13">
-        <v>553.654169070104</v>
+        <v>1107.38800100347</v>
       </c>
       <c r="D13">
-        <v>8734.87906408344</v>
+        <v>47504.3289944207</v>
       </c>
       <c r="E13">
-        <v>0.789461349549274</v>
+        <v>1.9153029544517</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>4240294.9821661</v>
+        <v>4434716.41865043</v>
       </c>
       <c r="B14">
-        <v>3112</v>
+        <v>123</v>
       </c>
       <c r="C14">
-        <v>571.91932337831</v>
+        <v>1107.38800100347</v>
       </c>
       <c r="D14">
-        <v>9847.72679625696</v>
+        <v>63219.4274818359</v>
       </c>
       <c r="E14">
-        <v>0.880628966635406</v>
+        <v>2.53528863994646</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>4244856.40611595</v>
+        <v>4436109.0623022</v>
       </c>
       <c r="B15">
-        <v>2873</v>
+        <v>123</v>
       </c>
       <c r="C15">
-        <v>571.91932337831</v>
+        <v>1107.38800100347</v>
       </c>
       <c r="D15">
-        <v>7449.00079265366</v>
+        <v>75753.2203478067</v>
       </c>
       <c r="E15">
-        <v>0.696896344685754</v>
+        <v>3.03017318682778</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>4326045.23874566</v>
+        <v>4457558.55669933</v>
       </c>
       <c r="B16">
-        <v>3367</v>
+        <v>108</v>
       </c>
       <c r="C16">
-        <v>571.91932337831</v>
+        <v>1141.88612839028</v>
       </c>
       <c r="D16">
-        <v>9392.679911349</v>
+        <v>25209.0075685081</v>
       </c>
       <c r="E16">
-        <v>1.19542038366041</v>
+        <v>1.07049793777953</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>4329739.01448522</v>
+        <v>4464146.08203957</v>
       </c>
       <c r="B17">
-        <v>3028</v>
+        <v>466</v>
       </c>
       <c r="C17">
-        <v>482.568259644277</v>
+        <v>1124.10023376849</v>
       </c>
       <c r="D17">
-        <v>9625.96539612402</v>
+        <v>32857.2042673865</v>
       </c>
       <c r="E17">
-        <v>0.6894761958834</v>
+        <v>1.66851262403253</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>4378501.54664203</v>
+        <v>4495433.17775769</v>
       </c>
       <c r="B18">
-        <v>2888</v>
+        <v>635</v>
       </c>
       <c r="C18">
-        <v>763.247022158778</v>
+        <v>1107.38800100347</v>
       </c>
       <c r="D18">
-        <v>7642.11631616895</v>
+        <v>72904.575317436</v>
       </c>
       <c r="E18">
-        <v>1.43120140159059</v>
+        <v>3.97644052607329</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>4401134.15871776</v>
+        <v>4496650.62613648</v>
       </c>
       <c r="B19">
-        <v>2873</v>
+        <v>471</v>
       </c>
       <c r="C19">
-        <v>721.694732934602</v>
+        <v>1147.89890198492</v>
       </c>
       <c r="D19">
-        <v>9278.44259673053</v>
+        <v>34313.3126141847</v>
       </c>
       <c r="E19">
-        <v>1.18912870775453</v>
+        <v>1.80611169067518</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>4410716.7692045</v>
+        <v>4497107.9690926</v>
       </c>
       <c r="B20">
-        <v>240</v>
+        <v>635</v>
       </c>
       <c r="C20">
-        <v>1093.38080932301</v>
+        <v>1107.38800100347</v>
       </c>
       <c r="D20">
-        <v>30372.6270680987</v>
+        <v>87977.6973316759</v>
       </c>
       <c r="E20">
-        <v>1.29900527906299</v>
+        <v>4.78759010355268</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>4411033.17908504</v>
+        <v>4511574.66151185</v>
       </c>
       <c r="B21">
-        <v>240</v>
+        <v>813</v>
       </c>
       <c r="C21">
-        <v>1093.38080932301</v>
+        <v>1065.16747001951</v>
       </c>
       <c r="D21">
-        <v>33220.3159929285</v>
+        <v>34313.3126141847</v>
       </c>
       <c r="E21">
-        <v>1.41648970014674</v>
+        <v>2.02901102584916</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>4411098.49492872</v>
+        <v>4524340.59105446</v>
       </c>
       <c r="B22">
-        <v>243</v>
+        <v>471</v>
       </c>
       <c r="C22">
-        <v>1093.38080932301</v>
+        <v>1167.14025102448</v>
       </c>
       <c r="D22">
-        <v>34801.3927199067</v>
+        <v>36037.9018788704</v>
       </c>
       <c r="E22">
-        <v>1.4841666418863</v>
+        <v>1.94835377194026</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>4411120.07968002</v>
+        <v>4543099.36851898</v>
       </c>
       <c r="B23">
-        <v>240</v>
+        <v>593</v>
       </c>
       <c r="C23">
-        <v>1093.38080932301</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D23">
-        <v>34002.4213477483</v>
+        <v>37320.8811871051</v>
       </c>
       <c r="E23">
-        <v>1.44875984861564</v>
+        <v>1.47022237638693</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>4411284.9891998</v>
+        <v>4543303.13411353</v>
       </c>
       <c r="B24">
-        <v>240</v>
+        <v>593</v>
       </c>
       <c r="C24">
-        <v>1093.38080932301</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D24">
-        <v>35486.6070257827</v>
+        <v>39154.7715380767</v>
       </c>
       <c r="E24">
-        <v>1.51000248704163</v>
+        <v>1.54066861060037</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>4411407.07921178</v>
+        <v>4543717.8425075</v>
       </c>
       <c r="B25">
-        <v>240</v>
+        <v>593</v>
       </c>
       <c r="C25">
-        <v>1093.38080932301</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D25">
-        <v>36585.4171336441</v>
+        <v>42887.1470837478</v>
       </c>
       <c r="E25">
-        <v>1.55534675973653</v>
+        <v>1.68406500770258</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>4411523.53179068</v>
+        <v>4548075.82184248</v>
       </c>
       <c r="B26">
-        <v>240</v>
+        <v>635</v>
       </c>
       <c r="C26">
-        <v>1093.38080932301</v>
+        <v>864.165797865862</v>
       </c>
       <c r="D26">
-        <v>37633.4903437089</v>
+        <v>87977.6973316759</v>
       </c>
       <c r="E26">
-        <v>1.59860011380155</v>
+        <v>3.4922967788061</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>4414666.77426179</v>
+        <v>4556985.06255784</v>
       </c>
       <c r="B27">
-        <v>188</v>
+        <v>582</v>
       </c>
       <c r="C27">
-        <v>1093.38080932301</v>
+        <v>855.459163687016</v>
       </c>
       <c r="D27">
-        <v>34584.6332283952</v>
+        <v>36209.5557689056</v>
       </c>
       <c r="E27">
-        <v>1.43197483761102</v>
+        <v>1.40571272868857</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>4416092.77410753</v>
+        <v>4557042.83650748</v>
       </c>
       <c r="B28">
-        <v>188</v>
+        <v>783</v>
       </c>
       <c r="C28">
-        <v>1093.38080932301</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D28">
-        <v>47418.6318400049</v>
+        <v>47789.5532779983</v>
       </c>
       <c r="E28">
-        <v>1.94721815739368</v>
+        <v>2.07270499797541</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>4417891.51203157</v>
+        <v>4558151.02162508</v>
       </c>
       <c r="B29">
-        <v>240</v>
+        <v>783</v>
       </c>
       <c r="C29">
-        <v>1103.05082236388</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D29">
-        <v>32445.4542497048</v>
+        <v>57763.2193364351</v>
       </c>
       <c r="E29">
-        <v>1.40062360819189</v>
+        <v>2.49685896103064</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>4419659.45637617</v>
+        <v>4559539.355161</v>
       </c>
       <c r="B30">
-        <v>2916</v>
+        <v>783</v>
       </c>
       <c r="C30">
-        <v>571.91932337831</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D30">
-        <v>6574.80903910942</v>
+        <v>70258.2211596899</v>
       </c>
       <c r="E30">
-        <v>0.710421797663215</v>
+        <v>3.02861319866309</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>4426884.5003455</v>
+        <v>4573558.39378227</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>421</v>
       </c>
       <c r="C31">
-        <v>1093.38080932301</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D31">
-        <v>58423.0872824849</v>
+        <v>35525.1178789682</v>
       </c>
       <c r="E31">
-        <v>2.31078828776659</v>
+        <v>1.2880789240947</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>4427572.53832114</v>
+        <v>4596556.61863981</v>
       </c>
       <c r="B32">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="C32">
-        <v>1093.38080932301</v>
+        <v>1248.6458404244</v>
       </c>
       <c r="D32">
-        <v>64615.429063215</v>
+        <v>40196.2320642775</v>
       </c>
       <c r="E32">
-        <v>2.55155379408215</v>
+        <v>1.99353476008585</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>4428158.87822586</v>
+        <v>4597531.23098222</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>513</v>
       </c>
       <c r="C33">
-        <v>1093.38080932301</v>
+        <v>1203.78945314497</v>
       </c>
       <c r="D33">
-        <v>69892.4882057386</v>
+        <v>41041.1109660918</v>
       </c>
       <c r="E33">
-        <v>2.75679948751535</v>
+        <v>2.41187367817801</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>4428727.74391934</v>
+        <v>4609985.86201533</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="C34">
-        <v>1093.38080932301</v>
+        <v>1257.66154533218</v>
       </c>
       <c r="D34">
-        <v>75012.2794470277</v>
+        <v>25995.194264195</v>
       </c>
       <c r="E34">
-        <v>2.95598775800568</v>
+        <v>1.32701490361064</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>4449480.44658224</v>
+        <v>4617569.15638879</v>
       </c>
       <c r="B35">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="C35">
-        <v>1093.38080932301</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D35">
-        <v>38431.1903502174</v>
+        <v>41760.6136340342</v>
       </c>
       <c r="E35">
-        <v>1.46748505572557</v>
+        <v>1.44667356901634</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>4475422.04167998</v>
+        <v>4625501.80876439</v>
       </c>
       <c r="B36">
-        <v>2873</v>
+        <v>900</v>
       </c>
       <c r="C36">
-        <v>645.543807179659</v>
+        <v>823.79079986223</v>
       </c>
       <c r="D36">
-        <v>10760.4427860563</v>
+        <v>37320.8811871051</v>
       </c>
       <c r="E36">
-        <v>0.963329300639201</v>
+        <v>1.6548722470974</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>4481316.37177146</v>
+        <v>4629423.53231526</v>
       </c>
       <c r="B37">
-        <v>200</v>
+        <v>471</v>
       </c>
       <c r="C37">
-        <v>1167.42645400832</v>
+        <v>1229.25373260808</v>
       </c>
       <c r="D37">
-        <v>34436.7052332723</v>
+        <v>35092.5520550688</v>
       </c>
       <c r="E37">
-        <v>1.57016960703647</v>
+        <v>2.09316889437058</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>4495749.94312634</v>
+        <v>4667972.27531564</v>
       </c>
       <c r="B38">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="C38">
-        <v>1177.50874360641</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D38">
-        <v>31414.7256537485</v>
+        <v>85078.6503132692</v>
       </c>
       <c r="E38">
-        <v>1.49089737299565</v>
+        <v>2.83488395462343</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>4561518.81549609</v>
+        <v>4668355.78384073</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="C39">
-        <v>1226.68187832501</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D39">
-        <v>34584.6332283952</v>
+        <v>88530.2270390729</v>
       </c>
       <c r="E39">
-        <v>1.51925664753212</v>
+        <v>2.94890605003723</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>4569681.75456036</v>
+        <v>4669238.12232941</v>
       </c>
       <c r="B40">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="C40">
-        <v>942.066045909237</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D40">
-        <v>45625.7132450043</v>
+        <v>96471.2734371836</v>
       </c>
       <c r="E40">
-        <v>1.55140008972025</v>
+        <v>3.21130956554695</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>4605917.42310122</v>
+        <v>4678295.73426896</v>
       </c>
       <c r="B41">
-        <v>3618</v>
+        <v>657</v>
       </c>
       <c r="C41">
-        <v>670.296872296918</v>
+        <v>776.293265919482</v>
       </c>
       <c r="D41">
-        <v>9392.679911349</v>
+        <v>44393.4306881068</v>
       </c>
       <c r="E41">
-        <v>3.25429761282742</v>
+        <v>1.63623786293111</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>4705133.05938894</v>
+        <v>4812672.3116245</v>
       </c>
       <c r="B42">
-        <v>3493</v>
+        <v>1319</v>
       </c>
       <c r="C42">
-        <v>456.963376410543</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D42">
-        <v>8138.57403593693</v>
+        <v>47789.5532779983</v>
       </c>
       <c r="E42">
-        <v>1.04079439099748</v>
+        <v>2.96395349924921</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>4723460.9261716</v>
+        <v>4818207.30291578</v>
       </c>
       <c r="B43">
-        <v>2971</v>
+        <v>145</v>
       </c>
       <c r="C43">
-        <v>571.91932337831</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D43">
-        <v>5433.17315478255</v>
+        <v>86514.4196639802</v>
       </c>
       <c r="E43">
-        <v>0.740376010754638</v>
+        <v>2.7390536022505</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>4737452.75922526</v>
+        <v>4850359.93791982</v>
       </c>
       <c r="B44">
-        <v>2906</v>
+        <v>126</v>
       </c>
       <c r="C44">
-        <v>670.296872296918</v>
+        <v>864.414867091533</v>
       </c>
       <c r="D44">
-        <v>12106.9723235305</v>
+        <v>38224.1407415288</v>
       </c>
       <c r="E44">
-        <v>1.07159659719616</v>
+        <v>1.2148678791113</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>4744536.79653344</v>
+        <v>4879777.73269578</v>
       </c>
       <c r="B45">
-        <v>124</v>
+        <v>493</v>
       </c>
       <c r="C45">
-        <v>1333.90925920213</v>
+        <v>721.330880298794</v>
       </c>
       <c r="D45">
-        <v>51811.1993101071</v>
+        <v>73744.654491206</v>
       </c>
       <c r="E45">
-        <v>2.797722403571</v>
+        <v>2.37692413748346</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>4759581.68676397</v>
+        <v>4880427.42271533</v>
       </c>
       <c r="B46">
-        <v>2242</v>
+        <v>593</v>
       </c>
       <c r="C46">
-        <v>233.11231800114</v>
+        <v>693.455162100704</v>
       </c>
       <c r="D46">
-        <v>4922.74160935236</v>
+        <v>41155.1402408903</v>
       </c>
       <c r="E46">
-        <v>0.214573952399839</v>
+        <v>1.35995064061993</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>4764444.65057091</v>
+        <v>4882193.80974154</v>
       </c>
       <c r="B47">
-        <v>3618</v>
+        <v>493</v>
       </c>
       <c r="C47">
-        <v>670.296872296918</v>
+        <v>721.330880298794</v>
       </c>
       <c r="D47">
-        <v>10564.8736708293</v>
+        <v>95489.3479029953</v>
       </c>
       <c r="E47">
-        <v>4.31460772890995</v>
+        <v>3.07155800998475</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>4795857.82631817</v>
+        <v>4900486.60913579</v>
       </c>
       <c r="B48">
-        <v>3304</v>
+        <v>123</v>
       </c>
       <c r="C48">
-        <v>670.296872296918</v>
+        <v>1410.5632160324</v>
       </c>
       <c r="D48">
-        <v>11658.5095296316</v>
+        <v>24505.8621517738</v>
       </c>
       <c r="E48">
-        <v>1.88825736137206</v>
+        <v>1.53673259089746</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>4965091.20172115</v>
+        <v>4916473.08945278</v>
       </c>
       <c r="B49">
-        <v>3973</v>
+        <v>436</v>
       </c>
       <c r="C49">
-        <v>298.638703602274</v>
+        <v>1373.91979411998</v>
       </c>
       <c r="D49">
-        <v>9570.48274779684</v>
+        <v>26995.6965250392</v>
       </c>
       <c r="E49">
-        <v>1.17676014660975</v>
+        <v>2.06302616106249</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>5109346.80955441</v>
+        <v>4922898.27671426</v>
       </c>
       <c r="B50">
-        <v>2242</v>
+        <v>97</v>
       </c>
       <c r="C50">
-        <v>138.855177562764</v>
+        <v>860.495170449512</v>
       </c>
       <c r="D50">
-        <v>3141.67509678102</v>
+        <v>25555.9518109896</v>
       </c>
       <c r="E50">
-        <v>0.139404258844564</v>
+        <v>0.808528527501726</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>5109773.20587034</v>
+        <v>4999297.37776916</v>
       </c>
       <c r="B51">
-        <v>2971</v>
+        <v>170</v>
       </c>
       <c r="C51">
-        <v>571.91932337831</v>
+        <v>808.22778737104</v>
       </c>
       <c r="D51">
-        <v>3866.76463402919</v>
+        <v>20865.0400593277</v>
       </c>
       <c r="E51">
-        <v>0.734606194391685</v>
+        <v>0.65367970761867</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>5208067.69238724</v>
+        <v>5017443.9703495</v>
       </c>
       <c r="B52">
-        <v>3367</v>
+        <v>783</v>
       </c>
       <c r="C52">
-        <v>571.91932337831</v>
+        <v>595.834427983857</v>
       </c>
       <c r="D52">
-        <v>14814.3515858637</v>
+        <v>46255.3866525589</v>
       </c>
       <c r="E52">
-        <v>1.15435464439492</v>
+        <v>1.51133710040513</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>5313550.23841531</v>
+        <v>5018928.27620332</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>464</v>
       </c>
       <c r="C53">
-        <v>809.728879588371</v>
+        <v>683.301038504641</v>
       </c>
       <c r="D53">
-        <v>40768.4315206943</v>
+        <v>74681.1536337043</v>
       </c>
       <c r="E53">
-        <v>1.17883220593929</v>
+        <v>2.29907874879669</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>5381371.12945544</v>
+        <v>5177202.48086299</v>
       </c>
       <c r="B54">
-        <v>2242</v>
+        <v>1712</v>
       </c>
       <c r="C54">
-        <v>233.11231800114</v>
+        <v>905.843905285043</v>
       </c>
       <c r="D54">
-        <v>8027.68248046642</v>
+        <v>59615.4908952577</v>
       </c>
       <c r="E54">
-        <v>0.319843811205614</v>
+        <v>5.98515352814001</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>5415514.59598772</v>
+        <v>5244329.0005387</v>
       </c>
       <c r="B55">
-        <v>2319</v>
+        <v>1371</v>
       </c>
       <c r="C55">
-        <v>868.145479701199</v>
+        <v>458.909664202413</v>
       </c>
       <c r="D55">
-        <v>1068.10090375683</v>
+        <v>73272.0518879963</v>
       </c>
       <c r="E55">
-        <v>0.636496495126169</v>
+        <v>2.71985216476607</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>5434083.1161573</v>
+        <v>5280968.11176021</v>
       </c>
       <c r="B56">
-        <v>1551</v>
+        <v>202</v>
       </c>
       <c r="C56">
-        <v>233.11231800114</v>
+        <v>726.820045907977</v>
       </c>
       <c r="D56">
-        <v>698.901146785603</v>
+        <v>23523.3981021573</v>
       </c>
       <c r="E56">
-        <v>0.0405359341219319</v>
+        <v>0.692534510630758</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>5517252.68740367</v>
+        <v>5427670.62457469</v>
       </c>
       <c r="B57">
-        <v>5938</v>
+        <v>26</v>
       </c>
       <c r="C57">
-        <v>0.692878390705573</v>
+        <v>1640.85789173661</v>
       </c>
       <c r="D57">
-        <v>18920.9093617079</v>
+        <v>28365.3936119226</v>
       </c>
       <c r="E57">
-        <v>2.75375419013127</v>
+        <v>2.57059723065789</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>5682259.03608338</v>
+        <v>5632050.14094589</v>
       </c>
       <c r="B58">
-        <v>1551</v>
+        <v>123</v>
       </c>
       <c r="C58">
-        <v>233.11231800114</v>
+        <v>681.33417247492</v>
       </c>
       <c r="D58">
-        <v>27377.5716567773</v>
+        <v>43996.7968405757</v>
       </c>
       <c r="E58">
-        <v>0.894812472254449</v>
+        <v>1.19584012226764</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>5683179.13488886</v>
+        <v>5991270.83078722</v>
       </c>
       <c r="B59">
-        <v>1551</v>
+        <v>493</v>
       </c>
       <c r="C59">
-        <v>233.11231800114</v>
+        <v>423.822814359569</v>
       </c>
       <c r="D59">
-        <v>35658.4609060607</v>
+        <v>50329.4507041364</v>
       </c>
       <c r="E59">
-        <v>1.16009941826007</v>
+        <v>1.27917588645231</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>5719686.74400591</v>
+        <v>6005250.3448864</v>
       </c>
       <c r="B60">
-        <v>5219</v>
+        <v>1132</v>
       </c>
       <c r="C60">
-        <v>145.026423472807</v>
+        <v>154.766951281533</v>
       </c>
       <c r="D60">
-        <v>12106.9723235305</v>
+        <v>78819.6657790242</v>
       </c>
       <c r="E60">
-        <v>7.00326138742145</v>
+        <v>2.03593698745296</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>5732747.46478962</v>
+        <v>6052210.89941835</v>
       </c>
       <c r="B61">
-        <v>1801</v>
+        <v>1565</v>
       </c>
       <c r="C61">
-        <v>275.08386406128</v>
+        <v>62.2657439920046</v>
       </c>
       <c r="D61">
-        <v>21786.3418634605</v>
+        <v>8074.0319591051</v>
       </c>
       <c r="E61">
-        <v>0.838757558658306</v>
+        <v>0.236506458748149</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>5773837.30927491</v>
+        <v>6169892.76295153</v>
       </c>
       <c r="B62">
-        <v>1429</v>
+        <v>1565</v>
       </c>
       <c r="C62">
-        <v>1428.57142857143</v>
+        <v>15.1382183516785</v>
       </c>
       <c r="D62">
-        <v>42857.1428571429</v>
+        <v>63545.9973914912</v>
       </c>
       <c r="E62">
-        <v>-55.7745261705267</v>
+        <v>1.71967437572368</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>5876081.94767828</v>
+        <v>6297481.37956742</v>
       </c>
       <c r="B63">
-        <v>188</v>
+        <v>2029</v>
       </c>
       <c r="C63">
-        <v>1781.10772581572</v>
+        <v>15.1382183516785</v>
       </c>
       <c r="D63">
-        <v>22804.8518494315</v>
+        <v>23597.738176298</v>
       </c>
       <c r="E63">
-        <v>4.39418353584179</v>
+        <v>0.77386580852116</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>5876576.13728</v>
+        <v>6331614.30502693</v>
       </c>
       <c r="B64">
-        <v>1378</v>
+        <v>123</v>
       </c>
       <c r="C64">
-        <v>148.21643105674</v>
+        <v>516.539320192436</v>
       </c>
       <c r="D64">
-        <v>47039.1256955449</v>
+        <v>60788.2184504984</v>
       </c>
       <c r="E64">
-        <v>1.32335031123499</v>
+        <v>1.46000673923479</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>5973375.04169834</v>
+        <v>6438442.71280207</v>
       </c>
       <c r="B65">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="C65">
-        <v>2239.54160272784</v>
+        <v>426.005779158695</v>
       </c>
       <c r="D65">
-        <v>9233.98435287439</v>
+        <v>99981.8134137726</v>
       </c>
       <c r="E65">
-        <v>-24.7426546214822</v>
+        <v>2.35504420219913</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>6059783.99473311</v>
+        <v>6459208.05365882</v>
       </c>
       <c r="B66">
-        <v>4276</v>
+        <v>783</v>
       </c>
       <c r="C66">
-        <v>32.9082291056236</v>
+        <v>1849.51335351818</v>
       </c>
       <c r="D66">
-        <v>6537.76878879089</v>
+        <v>57763.2193364351</v>
       </c>
       <c r="E66">
-        <v>0.830160290242022</v>
+        <v>-14.3562521097503</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>6180878.67248843</v>
+        <v>6644430.31451329</v>
       </c>
       <c r="B67">
-        <v>1244</v>
+        <v>749</v>
       </c>
       <c r="C67">
-        <v>1632.79980197472</v>
+        <v>151.074794708356</v>
       </c>
       <c r="D67">
-        <v>31386.7007356822</v>
+        <v>92502.0125850047</v>
       </c>
       <c r="E67">
-        <v>-8.10920859814484</v>
+        <v>2.10759556266268</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>6271795.46813503</v>
+        <v>6660060.43746412</v>
       </c>
       <c r="B68">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="C68">
-        <v>499.260292963652</v>
+        <v>489.490166167612</v>
       </c>
       <c r="D68">
-        <v>13894.8292687045</v>
+        <v>81685.0213507911</v>
       </c>
       <c r="E68">
-        <v>0.346394171459145</v>
+        <v>1.86092777744796</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>6297483.93565483</v>
+        <v>6906848.37984732</v>
       </c>
       <c r="B69">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="C69">
-        <v>493.38696384363</v>
+        <v>380.966971155286</v>
       </c>
       <c r="D69">
-        <v>28332.4373358569</v>
+        <v>72092.9934266737</v>
       </c>
       <c r="E69">
-        <v>0.690129334640067</v>
+        <v>1.58251627775087</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>6307266.5382834</v>
+        <v>7170629.47040801</v>
       </c>
       <c r="B70">
-        <v>2906</v>
+        <v>493</v>
       </c>
       <c r="C70">
-        <v>5.03574010021498</v>
+        <v>146.083509920407</v>
       </c>
       <c r="D70">
-        <v>12106.9723235305</v>
+        <v>81674.8103721629</v>
       </c>
       <c r="E70">
-        <v>0.487247679246801</v>
+        <v>1.72293066554113</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>6524728.22615845</v>
+        <v>7184870.05038108</v>
       </c>
       <c r="B71">
-        <v>2906</v>
+        <v>783</v>
       </c>
       <c r="C71">
-        <v>1417.87229003004</v>
+        <v>6.63070257044478</v>
       </c>
       <c r="D71">
-        <v>12795.606682123</v>
+        <v>57763.2193364351</v>
       </c>
       <c r="E71">
-        <v>-1.08780338884876</v>
+        <v>1.215185444952</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>6725913.98945829</v>
+        <v>7361289.64530368</v>
       </c>
       <c r="B72">
-        <v>47</v>
+        <v>635</v>
       </c>
       <c r="C72">
-        <v>457.798283588894</v>
+        <v>34.8858979491654</v>
       </c>
       <c r="D72">
-        <v>18546.0655010668</v>
+        <v>87977.6973316759</v>
       </c>
       <c r="E72">
-        <v>0.425465507474859</v>
+        <v>1.80603074959954</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>6871751.80912801</v>
+        <v>7377449.74603978</v>
       </c>
       <c r="B73">
-        <v>2852</v>
+        <v>369</v>
       </c>
       <c r="C73">
-        <v>605.77556858584</v>
+        <v>154.766951281533</v>
       </c>
       <c r="D73">
-        <v>89890.5377962267</v>
+        <v>66905.7015362676</v>
       </c>
       <c r="E73">
-        <v>25.2110402324289</v>
+        <v>1.37168140487795</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>7106594.46790063</v>
+        <v>7384846.4361579</v>
       </c>
       <c r="B74">
-        <v>406</v>
+        <v>493</v>
       </c>
       <c r="C74">
-        <v>200.238362838399</v>
+        <v>2203.62999501294</v>
       </c>
       <c r="D74">
-        <v>15147.1336834127</v>
+        <v>75389.8006072476</v>
       </c>
       <c r="E74">
-        <v>0.326917123915005</v>
+        <v>-7.52251153790968</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>7114319.42390906</v>
+        <v>7589449.46602522</v>
       </c>
       <c r="B75">
-        <v>2906</v>
+        <v>158</v>
       </c>
       <c r="C75">
-        <v>208.611725633205</v>
+        <v>204.054024940493</v>
       </c>
       <c r="D75">
-        <v>32019.5002425451</v>
+        <v>97422.9349929035</v>
       </c>
       <c r="E75">
-        <v>2.32791289873551</v>
+        <v>1.94110740687552</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>7115299.66768362</v>
+        <v>7898402.02579682</v>
       </c>
       <c r="B76">
-        <v>2906</v>
+        <v>2857</v>
       </c>
       <c r="C76">
-        <v>204.632317584283</v>
+        <v>1428.57142857143</v>
       </c>
       <c r="D76">
-        <v>19055.6412588232</v>
+        <v>42857.1428571429</v>
       </c>
       <c r="E76">
-        <v>1.39758839715531</v>
+        <v>-2.29598861103072</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>7146193.23380673</v>
+        <v>8048131.18109092</v>
       </c>
       <c r="B77">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C77">
-        <v>2195.64759730576</v>
+        <v>88.6012620321684</v>
       </c>
       <c r="D77">
-        <v>34584.6332283952</v>
+        <v>39969.0398074</v>
       </c>
       <c r="E77">
-        <v>-6.06950092988319</v>
+        <v>0.75021209499967</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>7170133.65821767</v>
+        <v>8153204.64930871</v>
       </c>
       <c r="B78">
-        <v>3618</v>
+        <v>173</v>
       </c>
       <c r="C78">
-        <v>670.296872296918</v>
+        <v>62.7044443655616</v>
       </c>
       <c r="D78">
-        <v>1634.53052958511</v>
+        <v>52262.5742148556</v>
       </c>
       <c r="E78">
-        <v>-0.421557533937506</v>
+        <v>0.967449679561996</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>7300714.23090214</v>
+        <v>8228524.26414321</v>
       </c>
       <c r="B79">
-        <v>3618</v>
+        <v>4286</v>
       </c>
       <c r="C79">
-        <v>670.296872296918</v>
+        <v>1428.57142857143</v>
       </c>
       <c r="D79">
-        <v>25028.3770172878</v>
+        <v>14285.7142857143</v>
       </c>
       <c r="E79">
-        <v>-11.2261099425898</v>
+        <v>-0.567322081213907</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>7532473.80853621</v>
+        <v>8491190.09443478</v>
       </c>
       <c r="B80">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>233.006677256502</v>
+        <v>62.2657439920046</v>
       </c>
       <c r="D80">
-        <v>82692.5547611731</v>
+        <v>33860.359701529</v>
       </c>
       <c r="E80">
-        <v>1.66053426320143</v>
+        <v>0.601488461360288</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>7597763.98952276</v>
+        <v>8557939.1219614</v>
       </c>
       <c r="B81">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C81">
-        <v>233.11231800114</v>
+        <v>11.1119818798153</v>
       </c>
       <c r="D81">
-        <v>935.488333725212</v>
+        <v>73744.654491206</v>
       </c>
       <c r="E81">
-        <v>0.0235346271730997</v>
+        <v>1.29921278187474</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>7708712.3328352</v>
+        <v>8640730.9670468</v>
       </c>
       <c r="B82">
-        <v>511</v>
+        <v>170</v>
       </c>
       <c r="C82">
-        <v>9.79779887963196</v>
+        <v>2646.19474776349</v>
       </c>
       <c r="D82">
-        <v>51811.1993101071</v>
+        <v>39969.0398074</v>
       </c>
       <c r="E82">
-        <v>1.01488723294884</v>
+        <v>-2.30433944131084</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>8157800.28912984</v>
+        <v>9248180.1960311</v>
       </c>
       <c r="B83">
-        <v>124</v>
+        <v>4180</v>
       </c>
       <c r="C83">
-        <v>2514.13962767432</v>
+        <v>887.951592243806</v>
       </c>
       <c r="D83">
-        <v>56873.7299470038</v>
+        <v>77752.2712158844</v>
       </c>
       <c r="E83">
-        <v>-4.18341000120861</v>
+        <v>-3.65564140713111</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>8289222.8700003</v>
+        <v>9279451.77319462</v>
       </c>
       <c r="B84">
-        <v>188</v>
+        <v>635</v>
       </c>
       <c r="C84">
-        <v>23.1066556020669</v>
+        <v>2719.60046043724</v>
       </c>
       <c r="D84">
-        <v>34584.6332283952</v>
+        <v>87977.6973316759</v>
       </c>
       <c r="E84">
-        <v>0.629356045543313</v>
+        <v>-3.39951454003772</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>8989536.86012849</v>
+        <v>9405199.10186852</v>
       </c>
       <c r="B85">
-        <v>2912</v>
+        <v>487</v>
       </c>
       <c r="C85">
-        <v>2193.40415388584</v>
+        <v>2792.19176164765</v>
       </c>
       <c r="D85">
-        <v>17364.2293111359</v>
+        <v>36248.0152885273</v>
       </c>
       <c r="E85">
-        <v>-0.582750412437883</v>
+        <v>-1.46184005388949</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>9343466.95209284</v>
+        <v>9560325.47422328</v>
       </c>
       <c r="B86">
-        <v>2486</v>
+        <v>4398</v>
       </c>
       <c r="C86">
-        <v>2460.32942747984</v>
+        <v>258.064229131528</v>
       </c>
       <c r="D86">
-        <v>9476.55767949854</v>
+        <v>76.8069492318009</v>
       </c>
       <c r="E86">
-        <v>-0.316566772493463</v>
+        <v>-0.191530644588048</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>15540147.6783496</v>
+        <v>10178464.2473052</v>
       </c>
       <c r="B87">
-        <v>4286</v>
+        <v>1408</v>
       </c>
       <c r="C87">
-        <v>2857.14285714286</v>
+        <v>2748.56568707185</v>
       </c>
       <c r="D87">
-        <v>71428.5714285714</v>
+        <v>74741.2375248483</v>
       </c>
       <c r="E87">
-        <v>-0.957769729506927</v>
+        <v>-2.06460839218605</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>16134399.8381406</v>
+        <v>17077092.5055195</v>
       </c>
       <c r="B88">
-        <v>124</v>
+        <v>2138</v>
       </c>
       <c r="C88">
-        <v>4668.20390762309</v>
+        <v>4263.03665118684</v>
       </c>
       <c r="D88">
-        <v>39523.8130558023</v>
+        <v>68686.5164772138</v>
       </c>
       <c r="E88">
-        <v>-0.591232063986418</v>
+        <v>-0.816914779381636</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>17864445.5203023</v>
+        <v>17941403.146382</v>
       </c>
       <c r="B89">
-        <v>8921</v>
+        <v>7143</v>
       </c>
       <c r="C89">
-        <v>233.11231800114</v>
+        <v>2857.14285714286</v>
       </c>
       <c r="D89">
-        <v>515.437905060138</v>
+        <v>28571.4285714286</v>
       </c>
       <c r="E89">
-        <v>-0.0416567151758307</v>
+        <v>-0.323092669050542</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>18433533.6856317</v>
+        <v>20024228.6677262</v>
       </c>
       <c r="B90">
-        <v>2857</v>
+        <v>8571</v>
       </c>
       <c r="C90">
-        <v>4285.71428571429</v>
+        <v>2857.14285714286</v>
       </c>
       <c r="D90">
-        <v>85714.2857142857</v>
+        <v>28571.4285714286</v>
       </c>
       <c r="E90">
-        <v>-0.906536631618195</v>
+        <v>-0.277672500931157</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>18544103.5910568</v>
+        <v>23666916.2938227</v>
       </c>
       <c r="B91">
-        <v>4286</v>
+        <v>5714</v>
       </c>
       <c r="C91">
-        <v>4285.71428571429</v>
+        <v>5714.28571428571</v>
       </c>
       <c r="D91">
-        <v>28571.4285714286</v>
+        <v>57142.8571428571</v>
       </c>
       <c r="E91">
-        <v>-0.318086106012612</v>
+        <v>-0.439961192023306</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>20082975.1173336</v>
+        <v>23666916.2938227</v>
       </c>
       <c r="B92">
-        <v>8571</v>
+        <v>5714</v>
       </c>
       <c r="C92">
-        <v>2857.14285714286</v>
+        <v>5714.28571428571</v>
       </c>
       <c r="D92">
-        <v>14285.7142857143</v>
+        <v>57142.8571428571</v>
       </c>
       <c r="E92">
-        <v>-0.151398394186692</v>
+        <v>-0.439961192023306</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>21583881.3490185</v>
+        <v>24376844.9874385</v>
       </c>
       <c r="B93">
-        <v>10000</v>
+        <v>1910</v>
       </c>
       <c r="C93">
-        <v>1428.57142857143</v>
+        <v>6175.85297033222</v>
       </c>
       <c r="D93">
-        <v>100000</v>
+        <v>92660.2446968511</v>
       </c>
       <c r="E93">
-        <v>-0.913448231815579</v>
+        <v>-0.705390307796479</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>22930832.1372871</v>
+        <v>24383273.674934</v>
       </c>
       <c r="B94">
-        <v>7143</v>
+        <v>1429</v>
       </c>
       <c r="C94">
         <v>7142.85714285714</v>
       </c>
       <c r="D94">
-        <v>85714.2857142857</v>
+        <v>42857.1428571429</v>
       </c>
       <c r="E94">
-        <v>-0.699984212172992</v>
+        <v>-0.344347936065891</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>23666916.2938227</v>
+        <v>24894113.3606357</v>
       </c>
       <c r="B95">
-        <v>5714</v>
+        <v>4286</v>
       </c>
       <c r="C95">
-        <v>5714.28571428571</v>
+        <v>8571.42857142857</v>
       </c>
       <c r="D95">
-        <v>57142.8571428571</v>
+        <v>85714.2857142857</v>
       </c>
       <c r="E95">
-        <v>-0.439961192023306</v>
+        <v>-0.642069510272672</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>23666916.2938227</v>
+        <v>25835153.1246245</v>
       </c>
       <c r="B96">
-        <v>5714</v>
+        <v>10000</v>
       </c>
       <c r="C96">
-        <v>5714.28571428571</v>
+        <v>4285.71428571429</v>
       </c>
       <c r="D96">
-        <v>57142.8571428571</v>
+        <v>71428.5714285714</v>
       </c>
       <c r="E96">
-        <v>-0.439961192023306</v>
+        <v>-0.48457225798466</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>35884457.4834066</v>
+        <v>25960238.2196575</v>
       </c>
       <c r="B97">
-        <v>2857</v>
+        <v>1429</v>
       </c>
       <c r="C97">
-        <v>8571.42857142857</v>
+        <v>7142.85714285714</v>
       </c>
       <c r="D97">
-        <v>100000</v>
+        <v>14285.7142857143</v>
       </c>
       <c r="E97">
-        <v>-0.495122856366093</v>
+        <v>-0.138353766117565</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>37681377.2555752</v>
+        <v>26108235.2706783</v>
       </c>
       <c r="B98">
-        <v>1429</v>
+        <v>10000</v>
       </c>
       <c r="C98">
-        <v>10000</v>
+        <v>4285.71428571429</v>
       </c>
       <c r="D98">
-        <v>14285.7142857143</v>
+        <v>100000</v>
       </c>
       <c r="E98">
-        <v>-0.103446905397738</v>
+        <v>-0.696010389323123</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>37974123.6271293</v>
+        <v>29434690.4016938</v>
       </c>
       <c r="B99">
-        <v>8571</v>
+        <v>2857</v>
       </c>
       <c r="C99">
-        <v>7142.85714285714</v>
+        <v>8571.42857142857</v>
       </c>
       <c r="D99">
-        <v>28571.4285714286</v>
+        <v>85714.2857142857</v>
       </c>
       <c r="E99">
-        <v>-0.152205656468767</v>
+        <v>-0.534130403423413</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>41749901.052711</v>
+        <v>40389831.8858033</v>
       </c>
       <c r="B100">
         <v>7143</v>
       </c>
       <c r="C100">
-        <v>8571.42857142857</v>
+        <v>10000</v>
       </c>
       <c r="D100">
-        <v>42857.1428571429</v>
+        <v>100000</v>
       </c>
       <c r="E100">
-        <v>-0.191937901488258</v>
+        <v>-0.429526080473512</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>53388954.4741442</v>
+        <v>50398515.534263</v>
       </c>
       <c r="B101">
-        <v>10000</v>
+        <v>8571</v>
       </c>
       <c r="C101">
         <v>10000</v>
@@ -2100,7 +2100,7 @@
         <v>71428.5714285714</v>
       </c>
       <c r="E101">
-        <v>-0.237345951492068</v>
+        <v>-0.250583507781811</v>
       </c>
     </row>
   </sheetData>
